--- a/data_clean/DNB 14.01.2021.xlsx
+++ b/data_clean/DNB 14.01.2021.xlsx
@@ -1581,7 +1581,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K2">
-        <v>61.17034267194455</v>
+        <v>0.1117034267194453</v>
       </c>
       <c r="L2">
         <v>0.00997523948990583</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1652,7 +1652,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.01945244854705613</v>
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1723,7 +1723,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.01438593251601782</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000203873598369</v>
+        <v>0.000203873598368931</v>
       </c>
       <c r="V4">
-        <v>1.000203873598369</v>
+        <v>0.000203873598368931</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1794,7 +1794,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0.01326763938788257</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000254790052996</v>
+        <v>0.0002547900529963343</v>
       </c>
       <c r="V5">
-        <v>1.000254790052996</v>
+        <v>0.0002547900529963343</v>
       </c>
       <c r="W5">
-        <v>1.000611246943765</v>
+        <v>0.0006112469437653534</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1865,7 +1865,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>0.01777383441829992</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.00070304141831</v>
+        <v>0.0007030414183097911</v>
       </c>
       <c r="V6">
-        <v>1.00070304141831</v>
+        <v>0.0007030414183097911</v>
       </c>
       <c r="W6">
-        <v>1.002748930971289</v>
+        <v>0.002748930971289143</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1936,7 +1936,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
         <v>0.02269849974855253</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000672001954915</v>
+        <v>0.0006720019549146805</v>
       </c>
       <c r="V7">
-        <v>1.000672001954915</v>
+        <v>0.0006720019549146805</v>
       </c>
       <c r="W7">
-        <v>1.001218397806884</v>
+        <v>0.00121839780688382</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2007,7 +2007,7 @@
         <v>1.741728433974348</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <v>0.02733698350109801</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000654107796965</v>
+        <v>0.0006541077969650644</v>
       </c>
       <c r="V8">
-        <v>1.000654107796965</v>
+        <v>0.0006541077969650644</v>
       </c>
       <c r="W8">
-        <v>1.00121691512017</v>
+        <v>0.001216915120170414</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2078,7 +2078,7 @@
         <v>9.847877531247835</v>
       </c>
       <c r="K9">
-        <v>90.78160684318705</v>
+        <v>0.4078160684318705</v>
       </c>
       <c r="L9">
         <v>0.02999667774293018</v>
@@ -2108,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000413997472436</v>
+        <v>0.0004139974724364226</v>
       </c>
       <c r="V9">
-        <v>1.000413997472436</v>
+        <v>0.0004139974724364226</v>
       </c>
       <c r="W9">
-        <v>0.9993922819811606</v>
+        <v>-0.0006077180188394093</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2149,7 +2149,7 @@
         <v>10.9005091101952</v>
       </c>
       <c r="K10">
-        <v>91.59699815579069</v>
+        <v>0.4159699815579069</v>
       </c>
       <c r="L10">
         <v>0.0317199699986944</v>
@@ -2179,13 +2179,13 @@
         <v>0.07986111111108585</v>
       </c>
       <c r="U10">
-        <v>1.000389625789839</v>
+        <v>0.0003896257898392541</v>
       </c>
       <c r="V10">
-        <v>1.000389625789839</v>
+        <v>0.0003896257898392541</v>
       </c>
       <c r="W10">
-        <v>1.00060808756461</v>
+        <v>0.0006080875646095052</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2220,7 +2220,7 @@
         <v>12.56255897169042</v>
       </c>
       <c r="K11">
-        <v>92.62676017050076</v>
+        <v>0.4262676017050075</v>
       </c>
       <c r="L11">
         <v>0.03319397438546556</v>
@@ -2250,13 +2250,13 @@
         <v>0.1512500000000045</v>
       </c>
       <c r="U11">
-        <v>1.000403020963863</v>
+        <v>0.0004030209638634652</v>
       </c>
       <c r="V11">
-        <v>1.000403020963863</v>
+        <v>0.0004030209638634652</v>
       </c>
       <c r="W11">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2291,7 +2291,7 @@
         <v>7.93503932100954</v>
       </c>
       <c r="K12">
-        <v>88.80810745120466</v>
+        <v>0.3880810745120467</v>
       </c>
       <c r="L12">
         <v>0.0339414085269478</v>
@@ -2321,13 +2321,13 @@
         <v>0.232954545454561</v>
       </c>
       <c r="U12">
-        <v>1.000301913132113</v>
+        <v>0.0003019131321133628</v>
       </c>
       <c r="V12">
-        <v>1.000301913132113</v>
+        <v>0.0003019131321133628</v>
       </c>
       <c r="W12">
-        <v>0.9996964177292047</v>
+        <v>-0.0003035822707952995</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2362,7 +2362,7 @@
         <v>9.098275249489943</v>
       </c>
       <c r="K13">
-        <v>90.09731884610187</v>
+        <v>0.4009731884610187</v>
       </c>
       <c r="L13">
         <v>0.03457595647318138</v>
@@ -2392,13 +2392,13 @@
         <v>0.3166666666666629</v>
       </c>
       <c r="U13">
-        <v>1.000327666094405</v>
+        <v>0.0003276660944047105</v>
       </c>
       <c r="V13">
-        <v>1.000327666094405</v>
+        <v>0.0003276660944047105</v>
       </c>
       <c r="W13">
-        <v>1.000911023382933</v>
+        <v>0.0009110233829334735</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2433,7 +2433,7 @@
         <v>9.914581164212953</v>
       </c>
       <c r="K14">
-        <v>90.83794435210369</v>
+        <v>0.4083794435210369</v>
       </c>
       <c r="L14">
         <v>0.0352033042474793</v>
@@ -2463,13 +2463,13 @@
         <v>0.3572115384615415</v>
       </c>
       <c r="U14">
-        <v>1.000324009915484</v>
+        <v>0.0003240099154842024</v>
       </c>
       <c r="V14">
-        <v>1.000324009915484</v>
+        <v>0.0003240099154842024</v>
       </c>
       <c r="W14">
-        <v>1.000606796116505</v>
+        <v>0.0006067961165048263</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2504,7 +2504,7 @@
         <v>2.77113270015435</v>
       </c>
       <c r="K15">
-        <v>73.48276818900935</v>
+        <v>0.2348276818900935</v>
       </c>
       <c r="L15">
         <v>0.03466772834401661</v>
@@ -2534,13 +2534,13 @@
         <v>0.3642857142857281</v>
       </c>
       <c r="U15">
-        <v>1.000147178849061</v>
+        <v>0.0001471788490612358</v>
       </c>
       <c r="V15">
-        <v>1.000147178849061</v>
+        <v>0.0001471788490612358</v>
       </c>
       <c r="W15">
-        <v>0.998180715585203</v>
+        <v>-0.001819284414796951</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2575,7 +2575,7 @@
         <v>2.460160142282526</v>
       </c>
       <c r="K16">
-        <v>71.09960351891861</v>
+        <v>0.2109960351891861</v>
       </c>
       <c r="L16">
         <v>0.03327117823073841</v>
@@ -2605,13 +2605,13 @@
         <v>0.346666666666664</v>
       </c>
       <c r="U16">
-        <v>1.000107246376812</v>
+        <v>0.0001072463768116982</v>
       </c>
       <c r="V16">
-        <v>1.000107246376812</v>
+        <v>0.0001072463768116982</v>
       </c>
       <c r="W16">
-        <v>0.9996962332928312</v>
+        <v>-0.0003037667071688066</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2646,7 +2646,7 @@
         <v>2.814534584095163</v>
       </c>
       <c r="K17">
-        <v>73.78448201336187</v>
+        <v>0.2378448201336186</v>
       </c>
       <c r="L17">
         <v>0.03179525158138206</v>
@@ -2676,13 +2676,13 @@
         <v>0.3531250000000057</v>
       </c>
       <c r="U17">
-        <v>1.000150889614737</v>
+        <v>0.0001508896147368599</v>
       </c>
       <c r="V17">
-        <v>1.000527479661601</v>
+        <v>0.0005274796616012711</v>
       </c>
       <c r="W17">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2717,7 +2717,7 @@
         <v>2.938876493503153</v>
       </c>
       <c r="K18">
-        <v>74.61204986626475</v>
+        <v>0.2461204986626475</v>
       </c>
       <c r="L18">
         <v>0.03038057683746687</v>
@@ -2747,13 +2747,13 @@
         <v>0.2937500000000171</v>
       </c>
       <c r="U18">
-        <v>1.000151016002103</v>
+        <v>0.0001510160021029883</v>
       </c>
       <c r="V18">
-        <v>1.000466370622706</v>
+        <v>0.0004663706227061581</v>
       </c>
       <c r="W18">
-        <v>1.000303582270796</v>
+        <v>0.0003035822707955216</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2788,7 +2788,7 @@
         <v>2.938876493503153</v>
       </c>
       <c r="K19">
-        <v>74.61204986626475</v>
+        <v>0.2461204986626475</v>
       </c>
       <c r="L19">
         <v>0.02897267516290093</v>
@@ -2818,13 +2818,13 @@
         <v>0.2281250000000057</v>
       </c>
       <c r="U19">
-        <v>1.000134216177523</v>
+        <v>0.0001342161775232942</v>
       </c>
       <c r="V19">
-        <v>1.000466153222538</v>
+        <v>0.0004661532225376241</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2859,7 +2859,7 @@
         <v>3.489976368995472</v>
       </c>
       <c r="K20">
-        <v>77.72816786063116</v>
+        <v>0.2772816786063116</v>
       </c>
       <c r="L20">
         <v>0.0280528150826226</v>
@@ -2889,13 +2889,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U20">
-        <v>1.00018411046628</v>
+        <v>0.0001841104662796411</v>
       </c>
       <c r="V20">
-        <v>1.000506452201041</v>
+        <v>0.0005064522010409522</v>
       </c>
       <c r="W20">
-        <v>1.001213960546282</v>
+        <v>0.0012139605462822</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2930,7 +2930,7 @@
         <v>1.866140150884458</v>
       </c>
       <c r="K21">
-        <v>65.10987085919677</v>
+        <v>0.1510987085919677</v>
       </c>
       <c r="L21">
         <v>0.02661458622220552</v>
@@ -2960,13 +2960,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U21">
-        <v>1.000074430963281</v>
+        <v>7.443096328074716E-05</v>
       </c>
       <c r="V21">
-        <v>1.000202478334818</v>
+        <v>0.0002024783348182346</v>
       </c>
       <c r="W21">
-        <v>0.9981812670506215</v>
+        <v>-0.00181873294937851</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3001,7 +3001,7 @@
         <v>2.192656455771667</v>
       </c>
       <c r="K22">
-        <v>68.67812074825008</v>
+        <v>0.1867812074825008</v>
       </c>
       <c r="L22">
         <v>0.0253604980496861</v>
@@ -3031,13 +3031,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U22">
-        <v>1.000125261837063</v>
+        <v>0.0001252618370626291</v>
       </c>
       <c r="V22">
-        <v>1.000202437345641</v>
+        <v>0.0002024373456412931</v>
       </c>
       <c r="W22">
-        <v>1.001214697843911</v>
+        <v>0.00121469784391115</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3072,7 +3072,7 @@
         <v>2.192656455771667</v>
       </c>
       <c r="K23">
-        <v>68.67812074825008</v>
+        <v>0.1867812074825008</v>
       </c>
       <c r="L23">
         <v>0.02419760798936007</v>
@@ -3102,13 +3102,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U23">
-        <v>1.000113860135</v>
+        <v>0.0001138601350001434</v>
       </c>
       <c r="V23">
-        <v>1.000121437823834</v>
+        <v>0.0001214378238343361</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3143,7 +3143,7 @@
         <v>2.283104185657346</v>
       </c>
       <c r="K24">
-        <v>69.54102144036044</v>
+        <v>0.1954102144036044</v>
       </c>
       <c r="L24">
         <v>0.02318983178938997</v>
@@ -3173,13 +3173,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U24">
-        <v>1.000117166165055</v>
+        <v>0.0001171661650551936</v>
       </c>
       <c r="V24">
-        <v>1.00018213461772</v>
+        <v>0.0001821346177195426</v>
       </c>
       <c r="W24">
-        <v>1.00030330603579</v>
+        <v>0.0003033060357902073</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3214,7 +3214,7 @@
         <v>2.37831232237906</v>
       </c>
       <c r="K25">
-        <v>70.39942123243998</v>
+        <v>0.2039942123243997</v>
       </c>
       <c r="L25">
         <v>0.02236721232933515</v>
@@ -3244,13 +3244,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U25">
-        <v>1.00012005621715</v>
+        <v>0.0001200562171499442</v>
       </c>
       <c r="V25">
-        <v>1.000161867956215</v>
+        <v>0.0001618679562149783</v>
       </c>
       <c r="W25">
-        <v>1.000303214069133</v>
+        <v>0.0003032140691328067</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3285,7 +3285,7 @@
         <v>2.678969596237216</v>
       </c>
       <c r="K26">
-        <v>72.81847610203732</v>
+        <v>0.2281847610203732</v>
       </c>
       <c r="L26">
         <v>0.02196982950391464</v>
@@ -3315,13 +3315,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U26">
-        <v>1.000146913548975</v>
+        <v>0.0001469135489753359</v>
       </c>
       <c r="V26">
-        <v>1.00016184175922</v>
+        <v>0.0001618417592197385</v>
       </c>
       <c r="W26">
-        <v>1.000909366474689</v>
+        <v>0.0009093664746893104</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3356,7 +3356,7 @@
         <v>2.784463376538343</v>
       </c>
       <c r="K27">
-        <v>73.57617446638625</v>
+        <v>0.2357617446638625</v>
       </c>
       <c r="L27">
         <v>0.02188019674281616</v>
@@ -3386,13 +3386,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U27">
-        <v>1.000147281602424</v>
+        <v>0.0001472816024237211</v>
       </c>
       <c r="V27">
-        <v>1.000202269463379</v>
+        <v>0.000202269463379201</v>
       </c>
       <c r="W27">
-        <v>1.00030284675954</v>
+        <v>0.0003028467595398432</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3427,7 +3427,7 @@
         <v>2.784463376538344</v>
       </c>
       <c r="K28">
-        <v>73.57617446638625</v>
+        <v>0.2357617446638625</v>
       </c>
       <c r="L28">
         <v>0.02189498775540013</v>
@@ -3457,13 +3457,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U28">
-        <v>1.000136351771989</v>
+        <v>0.0001363517719887852</v>
       </c>
       <c r="V28">
-        <v>1.000141559991102</v>
+        <v>0.0001415599911018806</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3498,7 +3498,7 @@
         <v>2.901353991830385</v>
       </c>
       <c r="K29">
-        <v>74.3678732538999</v>
+        <v>0.243678732538999</v>
       </c>
       <c r="L29">
         <v>0.02200144225863469</v>
@@ -3528,13 +3528,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U29">
-        <v>1.000137446106658</v>
+        <v>0.0001374461066583343</v>
       </c>
       <c r="V29">
-        <v>1.000121319961178</v>
+        <v>0.0001213199611775906</v>
       </c>
       <c r="W29">
-        <v>1.000302755071147</v>
+        <v>0.0003027550711474092</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3569,7 +3569,7 @@
         <v>2.901353991830385</v>
       </c>
       <c r="K30">
-        <v>74.3678732538999</v>
+        <v>0.243678732538999</v>
       </c>
       <c r="L30">
         <v>0.02207239174424376</v>
@@ -3599,13 +3599,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U30">
-        <v>1.000127949478662</v>
+        <v>0.000127949478661904</v>
       </c>
       <c r="V30">
-        <v>1.00024261048886</v>
+        <v>0.0002426104888599845</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3640,7 +3640,7 @@
         <v>1.760964766864076</v>
       </c>
       <c r="K31">
-        <v>63.78077648793008</v>
+        <v>0.1378077648793008</v>
       </c>
       <c r="L31">
         <v>0.02147028415033914</v>
@@ -3670,13 +3670,13 @@
         <v>0.1593749999999829</v>
       </c>
       <c r="U31">
-        <v>1.000068779632849</v>
+        <v>6.877963284934729E-05</v>
       </c>
       <c r="V31">
-        <v>1.000161701095525</v>
+        <v>0.0001617010955250464</v>
       </c>
       <c r="W31">
-        <v>0.9984866828087167</v>
+        <v>-0.001513317191283337</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3711,7 +3711,7 @@
         <v>1.410752819857169</v>
       </c>
       <c r="K32">
-        <v>58.51918157004385</v>
+        <v>0.08519181570043843</v>
       </c>
       <c r="L32">
         <v>0.02008694633107643</v>
@@ -3741,13 +3741,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U32">
-        <v>1.000283478278477</v>
+        <v>0.0002834782784770784</v>
       </c>
       <c r="V32">
-        <v>1.000040418738127</v>
+        <v>4.041873812687946E-05</v>
       </c>
       <c r="W32">
-        <v>0.9990906335253108</v>
+        <v>-0.0009093664746891994</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3782,7 +3782,7 @@
         <v>1.102906415769403</v>
       </c>
       <c r="K33">
-        <v>52.44676641332496</v>
+        <v>0.02446766413324963</v>
       </c>
       <c r="L33">
         <v>0.01780175815881804</v>
@@ -3812,13 +3812,13 @@
         <v>0.09375</v>
       </c>
       <c r="U33">
-        <v>1.00020242710094</v>
+        <v>0.0002024271009402057</v>
       </c>
       <c r="V33">
-        <v>0.9999393743432221</v>
+        <v>-6.062565677789067E-05</v>
       </c>
       <c r="W33">
-        <v>0.9987864077669902</v>
+        <v>-0.001213592233009764</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3853,7 +3853,7 @@
         <v>1.102906415769403</v>
       </c>
       <c r="K34">
-        <v>52.44676641332496</v>
+        <v>0.02446766413324963</v>
       </c>
       <c r="L34">
         <v>0.01505715966062332</v>
@@ -3883,13 +3883,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U34">
-        <v>1.000202386132502</v>
+        <v>0.0002023861325020082</v>
       </c>
       <c r="V34">
-        <v>0.999939370667529</v>
+        <v>-6.062933247097391E-05</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3924,7 +3924,7 @@
         <v>1.102906415769402</v>
       </c>
       <c r="K35">
-        <v>52.44676641332494</v>
+        <v>0.02446766413324941</v>
       </c>
       <c r="L35">
         <v>0.01215808575064958</v>
@@ -3954,13 +3954,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U35">
-        <v>1.000182110662579</v>
+        <v>0.0001821106625792268</v>
       </c>
       <c r="V35">
-        <v>0.9998585229799102</v>
+        <v>-0.0001414770200898197</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3995,7 +3995,7 @@
         <v>1.036928132936594</v>
       </c>
       <c r="K36">
-        <v>50.90646626995512</v>
+        <v>0.009064662699551196</v>
       </c>
       <c r="L36">
         <v>0.009196667184274849</v>
@@ -4025,13 +4025,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U36">
-        <v>1.000080923335255</v>
+        <v>8.092333525544504E-05</v>
       </c>
       <c r="V36">
-        <v>0.9999595722746658</v>
+        <v>-4.042772533419114E-05</v>
       </c>
       <c r="W36">
-        <v>0.9996962332928312</v>
+        <v>-0.0003037667071688066</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4066,7 +4066,7 @@
         <v>1.036928132936594</v>
       </c>
       <c r="K37">
-        <v>50.90646626995512</v>
+        <v>0.009064662699551196</v>
       </c>
       <c r="L37">
         <v>0.006354424382766418</v>
@@ -4096,13 +4096,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U37">
-        <v>1.000040458393599</v>
+        <v>4.045839359934078E-05</v>
       </c>
       <c r="V37">
-        <v>0.9998787119205969</v>
+        <v>-0.0001212880794031479</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4137,7 +4137,7 @@
         <v>1.036928132936594</v>
       </c>
       <c r="K38">
-        <v>50.90646626995513</v>
+        <v>0.009064662699551307</v>
       </c>
       <c r="L38">
         <v>0.003743304841126473</v>
@@ -4167,13 +4167,13 @@
         <v>-0.2062500000000398</v>
       </c>
       <c r="U38">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V38">
-        <v>0.999878697208014</v>
+        <v>-0.0001213027919859666</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4208,7 +4208,7 @@
         <v>1.036928132936594</v>
       </c>
       <c r="K39">
-        <v>50.90646626995512</v>
+        <v>0.009064662699551196</v>
       </c>
       <c r="L39">
         <v>0.001425438660913551</v>
@@ -4238,13 +4238,13 @@
         <v>-0.2374999999999545</v>
       </c>
       <c r="U39">
-        <v>1.000020228378392</v>
+        <v>2.022837839210645E-05</v>
       </c>
       <c r="V39">
-        <v>0.9998584629071721</v>
+        <v>-0.0001415370928279369</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4279,7 +4279,7 @@
         <v>1.18382005708527</v>
       </c>
       <c r="K40">
-        <v>54.20868139957037</v>
+        <v>0.04208681399570369</v>
       </c>
       <c r="L40">
         <v>-0.0003500858543324547</v>
@@ -4309,13 +4309,13 @@
         <v>-0.2406250000000227</v>
       </c>
       <c r="U40">
-        <v>1.000020227969213</v>
+        <v>2.022796921297143E-05</v>
       </c>
       <c r="V40">
-        <v>0.9998786653185034</v>
+        <v>-0.0001213346814965544</v>
       </c>
       <c r="W40">
-        <v>1.000607718018839</v>
+        <v>0.0006077180188392983</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4350,7 +4350,7 @@
         <v>1.261131596110866</v>
       </c>
       <c r="K41">
-        <v>55.77435644524209</v>
+        <v>0.0577435644524209</v>
       </c>
       <c r="L41">
         <v>-0.00157207264159259</v>
@@ -4380,13 +4380,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>0.9998382007928163</v>
+        <v>-0.0001617992071837326</v>
       </c>
       <c r="W41">
-        <v>1.000303674460978</v>
+        <v>0.0003036744609776765</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4421,7 +4421,7 @@
         <v>1.423892730901688</v>
       </c>
       <c r="K42">
-        <v>58.74404889081045</v>
+        <v>0.08744048890810452</v>
       </c>
       <c r="L42">
         <v>-0.002153838570811078</v>
@@ -4451,13 +4451,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U42">
-        <v>1.000030341340076</v>
+        <v>3.034134007595668E-05</v>
       </c>
       <c r="V42">
-        <v>0.9998584027833965</v>
+        <v>-0.0001415972166034507</v>
       </c>
       <c r="W42">
-        <v>1.000607164541591</v>
+        <v>0.0006071645415908211</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4492,7 +4492,7 @@
         <v>1.423892730901689</v>
       </c>
       <c r="K43">
-        <v>58.74404889081046</v>
+        <v>0.08744048890810463</v>
       </c>
       <c r="L43">
         <v>-0.00230336671870835</v>
@@ -4522,13 +4522,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U43">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V43">
-        <v>0.9998583827307855</v>
+        <v>-0.0001416172692144668</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4563,7 +4563,7 @@
         <v>1.206336312918346</v>
       </c>
       <c r="K44">
-        <v>54.67599412905059</v>
+        <v>0.04675994129050587</v>
       </c>
       <c r="L44">
         <v>-0.002394950073102096</v>
@@ -4593,13 +4593,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U44">
-        <v>0.9999595461073244</v>
+        <v>-4.045389267559596E-05</v>
       </c>
       <c r="V44">
-        <v>0.9997976609607058</v>
+        <v>-0.0002023390392942304</v>
       </c>
       <c r="W44">
-        <v>0.9993932038834951</v>
+        <v>-0.0006067961165049374</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4634,7 +4634,7 @@
         <v>1.206336312918346</v>
       </c>
       <c r="K45">
-        <v>54.67599412905059</v>
+        <v>0.04675994129050587</v>
       </c>
       <c r="L45">
         <v>-0.002436882040418091</v>
@@ -4664,13 +4664,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U45">
-        <v>1.00002022776463</v>
+        <v>2.022776462973219E-05</v>
       </c>
       <c r="V45">
-        <v>0.9997976200113334</v>
+        <v>-0.0002023799886665678</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4705,7 +4705,7 @@
         <v>1.206336312918346</v>
       </c>
       <c r="K46">
-        <v>54.6759941290506</v>
+        <v>0.04675994129050598</v>
       </c>
       <c r="L46">
         <v>-0.002437197071592266</v>
@@ -4735,13 +4735,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U46">
-        <v>1.000030341033213</v>
+        <v>3.034103321319925E-05</v>
       </c>
       <c r="V46">
-        <v>0.9998987895226913</v>
+        <v>-0.0001012104773087108</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4776,7 +4776,7 @@
         <v>1.023875016312721</v>
       </c>
       <c r="K47">
-        <v>50.58983425656933</v>
+        <v>0.005898342565693326</v>
       </c>
       <c r="L47">
         <v>-0.002624732095766596</v>
@@ -4806,13 +4806,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U47">
-        <v>0.9999797732582248</v>
+        <v>-2.022674177515338E-05</v>
       </c>
       <c r="V47">
-        <v>0.9999190234224751</v>
+        <v>-8.097657752492715E-05</v>
       </c>
       <c r="W47">
-        <v>0.9993928354584093</v>
+        <v>-0.0006071645415907101</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4847,7 +4847,7 @@
         <v>1.023875016312721</v>
       </c>
       <c r="K48">
-        <v>50.58983425656933</v>
+        <v>0.005898342565693326</v>
       </c>
       <c r="L48">
         <v>-0.00290408111380549</v>
@@ -4877,13 +4877,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U48">
-        <v>0.9999696592736429</v>
+        <v>-3.034072635710316E-05</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4918,7 +4918,7 @@
         <v>0.9447116219582816</v>
       </c>
       <c r="K49">
-        <v>48.57849417318635</v>
+        <v>-0.01421505826813652</v>
       </c>
       <c r="L49">
         <v>-0.003321247000117963</v>
@@ -4948,13 +4948,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U49">
-        <v>0.9999595444707405</v>
+        <v>-4.045552925946438E-05</v>
       </c>
       <c r="V49">
-        <v>0.9999797542161843</v>
+        <v>-2.024578381565334E-05</v>
       </c>
       <c r="W49">
-        <v>0.9996962332928312</v>
+        <v>-0.0003037667071688066</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4989,7 +4989,7 @@
         <v>0.8736112194607286</v>
       </c>
       <c r="K50">
-        <v>46.62713429481786</v>
+        <v>-0.03372865705182138</v>
       </c>
       <c r="L50">
         <v>-0.00389378228698713</v>
@@ -5019,13 +5019,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U50">
-        <v>0.9999089713765551</v>
+        <v>-9.102862344489981E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999595076125689</v>
+        <v>-4.049238743109029E-05</v>
       </c>
       <c r="W50">
-        <v>0.9996961409905804</v>
+        <v>-0.0003038590094196492</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5060,7 +5060,7 @@
         <v>0.7058527167849017</v>
       </c>
       <c r="K51">
-        <v>41.37829191462992</v>
+        <v>-0.08621708085370083</v>
       </c>
       <c r="L51">
         <v>-0.004841538393644886</v>
@@ -5090,13 +5090,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U51">
-        <v>0.9999393087263935</v>
+        <v>-6.069127360652793E-05</v>
       </c>
       <c r="V51">
-        <v>0.999919011945738</v>
+        <v>-8.098805426204336E-05</v>
       </c>
       <c r="W51">
-        <v>0.9990881458966565</v>
+        <v>-0.0009118541033434902</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5131,7 +5131,7 @@
         <v>0.7732312384964022</v>
       </c>
       <c r="K52">
-        <v>43.60577581252503</v>
+        <v>-0.06394224187474967</v>
       </c>
       <c r="L52">
         <v>-0.005827952049641485</v>
@@ -5161,13 +5161,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U52">
-        <v>0.9999089575641091</v>
+        <v>-9.104243589086458E-05</v>
       </c>
       <c r="V52">
-        <v>0.9999392540396066</v>
+        <v>-6.074596039340463E-05</v>
       </c>
       <c r="W52">
-        <v>1.000304228780043</v>
+        <v>0.0003042287800427701</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5202,7 +5202,7 @@
         <v>0.8441559981926784</v>
       </c>
       <c r="K53">
-        <v>45.77465241660541</v>
+        <v>-0.04225347583394595</v>
       </c>
       <c r="L53">
         <v>-0.006643150016121679</v>
@@ -5232,13 +5232,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U53">
-        <v>0.9999190660218925</v>
+        <v>-8.093397810748915E-05</v>
       </c>
       <c r="V53">
-        <v>0.9999595002328735</v>
+        <v>-4.049976712650061E-05</v>
       </c>
       <c r="W53">
-        <v>1.000304136253041</v>
+        <v>0.000304136253041154</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5273,7 +5273,7 @@
         <v>0.7855115576995343</v>
       </c>
       <c r="K54">
-        <v>43.99364172761743</v>
+        <v>-0.06006358272382573</v>
       </c>
       <c r="L54">
         <v>-0.007389125957339564</v>
@@ -5303,13 +5303,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U54">
-        <v>0.9998988243388172</v>
+        <v>-0.0001011756611828396</v>
       </c>
       <c r="V54">
-        <v>0.9999392478888642</v>
+        <v>-6.075211113576451E-05</v>
       </c>
       <c r="W54">
-        <v>0.9996959562176955</v>
+        <v>-0.0003040437823045306</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5344,7 +5344,7 @@
         <v>1.078021426136011</v>
       </c>
       <c r="K55">
-        <v>51.87730081015307</v>
+        <v>0.01877300810153071</v>
       </c>
       <c r="L55">
         <v>-0.007576426932166118</v>
@@ -5374,13 +5374,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U55">
-        <v>0.9999291698708869</v>
+        <v>-7.08301291131308E-05</v>
       </c>
       <c r="V55">
-        <v>0.9999797480659404</v>
+        <v>-2.02519340596341E-05</v>
       </c>
       <c r="W55">
-        <v>1.001216545012165</v>
+        <v>0.001216545012165282</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5415,7 +5415,7 @@
         <v>1.231973988470999</v>
       </c>
       <c r="K56">
-        <v>55.19661048178056</v>
+        <v>0.05196610481780561</v>
       </c>
       <c r="L56">
         <v>-0.007164566301296462</v>
@@ -5445,13 +5445,13 @@
         <v>-0.1031250000000341</v>
       </c>
       <c r="U56">
-        <v>0.9999190455469991</v>
+        <v>-8.095445300093651E-05</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>1.000607533414338</v>
+        <v>0.0006075334143378353</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5486,7 +5486,7 @@
         <v>1.060168098683488</v>
       </c>
       <c r="K57">
-        <v>51.46027158468132</v>
+        <v>0.01460271584681316</v>
       </c>
       <c r="L57">
         <v>-0.006611018935648329</v>
@@ -5516,13 +5516,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U57">
-        <v>0.9998886786151621</v>
+        <v>-0.0001113213848379369</v>
       </c>
       <c r="V57">
-        <v>0.9999189906231647</v>
+        <v>-8.100937683530596E-05</v>
       </c>
       <c r="W57">
-        <v>0.9993928354584093</v>
+        <v>-0.0006071645415907101</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5557,7 +5557,7 @@
         <v>1.060168098683488</v>
       </c>
       <c r="K58">
-        <v>51.46027158468132</v>
+        <v>0.01460271584681316</v>
       </c>
       <c r="L58">
         <v>-0.005982819599988913</v>
@@ -5587,13 +5587,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U58">
-        <v>0.9998886662213314</v>
+        <v>-0.0001113337786685653</v>
       </c>
       <c r="V58">
-        <v>0.9999189840601137</v>
+        <v>-8.101593988629752E-05</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5628,7 +5628,7 @@
         <v>1.214689735231946</v>
       </c>
       <c r="K59">
-        <v>54.84694835164937</v>
+        <v>0.04846948351649372</v>
       </c>
       <c r="L59">
         <v>-0.005106427695204033</v>
@@ -5658,13 +5658,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U59">
-        <v>0.9998987762043102</v>
+        <v>-0.0001012237956897755</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1.000607533414338</v>
+        <v>0.0006075334143378353</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5699,7 +5699,7 @@
         <v>1.044755675476279</v>
       </c>
       <c r="K60">
-        <v>51.09440154667511</v>
+        <v>0.01094401546675106</v>
       </c>
       <c r="L60">
         <v>-0.004338099461713494</v>
@@ -5729,13 +5729,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U60">
-        <v>0.999878519148419</v>
+        <v>-0.0001214808515810351</v>
       </c>
       <c r="V60">
-        <v>0.9999594887479998</v>
+        <v>-4.051125200021932E-05</v>
       </c>
       <c r="W60">
-        <v>0.9993928354584093</v>
+        <v>-0.0006071645415907101</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5770,7 +5770,7 @@
         <v>1.044755675476279</v>
       </c>
       <c r="K61">
-        <v>51.09440154667512</v>
+        <v>0.01094401546675117</v>
       </c>
       <c r="L61">
         <v>-0.003668403487087444</v>
@@ -5800,13 +5800,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U61">
-        <v>0.9999291275602671</v>
+        <v>-7.087243973291635E-05</v>
       </c>
       <c r="V61">
-        <v>0.9999594871067717</v>
+        <v>-4.051289322826168E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5841,7 +5841,7 @@
         <v>0.9045402602217604</v>
       </c>
       <c r="K62">
-        <v>47.4938902114066</v>
+        <v>-0.02506109788593397</v>
       </c>
       <c r="L62">
         <v>-0.003308991668926035</v>
@@ -5871,13 +5871,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U62">
-        <v>0.999939247888864</v>
+        <v>-6.075211113598655E-05</v>
       </c>
       <c r="V62">
-        <v>0.9999594854654108</v>
+        <v>-4.051453458919774E-05</v>
       </c>
       <c r="W62">
-        <v>0.9993924665856623</v>
+        <v>-0.0006075334143377242</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5912,7 +5912,7 @@
         <v>0.844862379187528</v>
       </c>
       <c r="K63">
-        <v>45.79541480810092</v>
+        <v>-0.04204585191899085</v>
       </c>
       <c r="L63">
         <v>-0.003259034432099398</v>
@@ -5942,13 +5942,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U63">
-        <v>0.9999696220989103</v>
+        <v>-3.037790108972871E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999392257358749</v>
+        <v>-6.077426412509634E-05</v>
       </c>
       <c r="W63">
-        <v>0.9996960486322187</v>
+        <v>-0.0003039513677812744</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5983,7 +5983,7 @@
         <v>1.122655750710371</v>
       </c>
       <c r="K64">
-        <v>52.88920496574452</v>
+        <v>0.02889204965744518</v>
       </c>
       <c r="L64">
         <v>-0.002945449280525338</v>
@@ -6013,13 +6013,13 @@
         <v>0.046875</v>
       </c>
       <c r="U64">
-        <v>1.000010126274645</v>
+        <v>1.012627464525018E-05</v>
       </c>
       <c r="V64">
-        <v>1.000040518638574</v>
+        <v>4.051863857368332E-05</v>
       </c>
       <c r="W64">
-        <v>1.001216175129219</v>
+        <v>0.001216175129218788</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6054,7 +6054,7 @@
         <v>1.046176562670267</v>
       </c>
       <c r="K65">
-        <v>51.12836212457656</v>
+        <v>0.01128362124576565</v>
       </c>
       <c r="L65">
         <v>-0.002592004995568009</v>
@@ -6084,13 +6084,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U65">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V65">
-        <v>1.00004051699688</v>
+        <v>4.051699688023547E-05</v>
       </c>
       <c r="W65">
-        <v>0.9996963255390221</v>
+        <v>-0.0003036744609778985</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6125,7 +6125,7 @@
         <v>0.9149556386855435</v>
       </c>
       <c r="K66">
-        <v>47.77946915332117</v>
+        <v>-0.02220530846678836</v>
       </c>
       <c r="L66">
         <v>-0.002448719693594432</v>
@@ -6155,13 +6155,13 @@
         <v>0.03125</v>
       </c>
       <c r="U66">
-        <v>0.9999898738278954</v>
+        <v>-1.012617210460753E-05</v>
       </c>
       <c r="V66">
-        <v>1.00006077303298</v>
+        <v>6.077303297957748E-05</v>
       </c>
       <c r="W66">
-        <v>0.9993924665856623</v>
+        <v>-0.0006075334143377242</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6196,7 +6196,7 @@
         <v>0.8582950463738248</v>
       </c>
       <c r="K67">
-        <v>46.18723211088867</v>
+        <v>-0.03812767889111329</v>
       </c>
       <c r="L67">
         <v>-0.002543593179648655</v>
@@ -6226,13 +6226,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U67">
-        <v>0.9999797474507104</v>
+        <v>-2.025254928961218E-05</v>
       </c>
       <c r="V67">
-        <v>1.000020256446614</v>
+        <v>2.025644661407533E-05</v>
       </c>
       <c r="W67">
-        <v>0.9996960486322187</v>
+        <v>-0.0003039513677812744</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6267,7 +6267,7 @@
         <v>0.8057697597038384</v>
       </c>
       <c r="K68">
-        <v>44.62195445315196</v>
+        <v>-0.05378045546848043</v>
       </c>
       <c r="L68">
         <v>-0.002878074762323854</v>
@@ -6297,13 +6297,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U68">
-        <v>0.9999696205608046</v>
+        <v>-3.037943919537156E-05</v>
       </c>
       <c r="V68">
-        <v>0.9999797439637012</v>
+        <v>-2.025603629884909E-05</v>
       </c>
       <c r="W68">
-        <v>0.9996959562176955</v>
+        <v>-0.0003040437823045306</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6338,7 +6338,7 @@
         <v>0.8701879055100882</v>
       </c>
       <c r="K69">
-        <v>46.52943711946138</v>
+        <v>-0.03470562880538625</v>
       </c>
       <c r="L69">
         <v>-0.003215329355354359</v>
@@ -6368,13 +6368,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U69">
-        <v>0.9999797464252441</v>
+        <v>-2.025357475587963E-05</v>
       </c>
       <c r="V69">
-        <v>1.000020256446614</v>
+        <v>2.025644661407533E-05</v>
       </c>
       <c r="W69">
-        <v>1.000304136253041</v>
+        <v>0.000304136253041154</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6409,7 +6409,7 @@
         <v>1.005805054575954</v>
       </c>
       <c r="K70">
-        <v>50.14470635026845</v>
+        <v>0.001447063502684531</v>
       </c>
       <c r="L70">
         <v>-0.003299837393347932</v>
@@ -6439,13 +6439,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U70">
-        <v>0.9999797460150283</v>
+        <v>-2.025398497174091E-05</v>
       </c>
       <c r="V70">
-        <v>0.9999797439637012</v>
+        <v>-2.025603629884909E-05</v>
       </c>
       <c r="W70">
-        <v>1.00060808756461</v>
+        <v>0.0006080875646095052</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6480,7 +6480,7 @@
         <v>1.005805054575954</v>
       </c>
       <c r="K71">
-        <v>50.14470635026845</v>
+        <v>0.001447063502684531</v>
       </c>
       <c r="L71">
         <v>-0.003213816240225242</v>
@@ -6510,13 +6510,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U71">
-        <v>0.9999696184071942</v>
+        <v>-3.038159280577268E-05</v>
       </c>
       <c r="V71">
-        <v>0.9999392306601574</v>
+        <v>-6.076933984255906E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6551,7 +6551,7 @@
         <v>0.9355158612215163</v>
       </c>
       <c r="K72">
-        <v>48.33418728127118</v>
+        <v>-0.01665812718728821</v>
       </c>
       <c r="L72">
         <v>-0.003128883093318576</v>
@@ -6581,13 +6581,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U72">
-        <v>0.9999392349682505</v>
+        <v>-6.076503174945458E-05</v>
       </c>
       <c r="V72">
-        <v>0.9999594846446803</v>
+        <v>-4.051535531968131E-05</v>
       </c>
       <c r="W72">
-        <v>0.9996961409905804</v>
+        <v>-0.0003038590094196492</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6622,7 +6622,7 @@
         <v>1.082639052235487</v>
       </c>
       <c r="K73">
-        <v>51.98399843090388</v>
+        <v>0.01983998430903877</v>
       </c>
       <c r="L73">
         <v>-0.002817367529283875</v>
@@ -6652,13 +6652,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U73">
-        <v>0.9999594875170913</v>
+        <v>-4.051248290870557E-05</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>1.000607902735562</v>
+        <v>0.0006079027355623268</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6693,7 +6693,7 @@
         <v>1.082639052235487</v>
       </c>
       <c r="K74">
-        <v>51.98399843090387</v>
+        <v>0.01983998430903866</v>
       </c>
       <c r="L74">
         <v>-0.002378156007734832</v>
@@ -6723,13 +6723,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U74">
-        <v>0.9999797429378816</v>
+        <v>-2.025706211838951E-05</v>
       </c>
       <c r="V74">
-        <v>0.9999594830031199</v>
+        <v>-4.051699688012445E-05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6764,7 +6764,7 @@
         <v>1.327165131483107</v>
       </c>
       <c r="K75">
-        <v>57.02926335258822</v>
+        <v>0.07029263352588222</v>
       </c>
       <c r="L75">
         <v>-0.001548988009474875</v>
@@ -6794,13 +6794,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U75">
-        <v>1.000010128736238</v>
+        <v>1.012873623773558E-05</v>
       </c>
       <c r="V75">
-        <v>1.000060777957861</v>
+        <v>6.077795786052498E-05</v>
       </c>
       <c r="W75">
-        <v>1.000911300121507</v>
+        <v>0.0009113001215066419</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6835,7 +6835,7 @@
         <v>1.670359628672717</v>
       </c>
       <c r="K76">
-        <v>62.55186045869625</v>
+        <v>0.1255186045869625</v>
       </c>
       <c r="L76">
         <v>-8.819464719412154E-05</v>
@@ -6865,13 +6865,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U76">
-        <v>1.000050643168237</v>
+        <v>5.064316823655268E-05</v>
       </c>
       <c r="V76">
-        <v>1.000141806616292</v>
+        <v>0.0001418066162917064</v>
       </c>
       <c r="W76">
-        <v>1.001213960546282</v>
+        <v>0.0012139605462822</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6906,7 +6906,7 @@
         <v>1.670359628672717</v>
       </c>
       <c r="K77">
-        <v>62.55186045869625</v>
+        <v>0.1255186045869625</v>
       </c>
       <c r="L77">
         <v>0.001662481492385708</v>
@@ -6936,13 +6936,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U77">
-        <v>1.00007089684509</v>
+        <v>7.089684509042904E-05</v>
       </c>
       <c r="V77">
-        <v>1.000182296941462</v>
+        <v>0.0001822969414624342</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6977,7 +6977,7 @@
         <v>1.765427356426099</v>
       </c>
       <c r="K78">
-        <v>63.83922370348031</v>
+        <v>0.1383922370348031</v>
       </c>
       <c r="L78">
         <v>0.003581725255150817</v>
@@ -7007,13 +7007,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U78">
-        <v>1.00008101922181</v>
+        <v>8.101922181036336E-05</v>
       </c>
       <c r="V78">
-        <v>1.000222766763199</v>
+        <v>0.0002227667631988783</v>
       </c>
       <c r="W78">
-        <v>1.00030312215823</v>
+        <v>0.0003031221582299182</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7048,7 +7048,7 @@
         <v>1.103097188709734</v>
       </c>
       <c r="K79">
-        <v>52.45107998962675</v>
+        <v>0.02451079989626748</v>
       </c>
       <c r="L79">
         <v>0.004803817486746291</v>
@@ -7078,13 +7078,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U79">
-        <v>1.000030379746835</v>
+        <v>3.03797468352851E-05</v>
       </c>
       <c r="V79">
-        <v>1.000020247013566</v>
+        <v>2.024701356573289E-05</v>
       </c>
       <c r="W79">
-        <v>0.9981818181818181</v>
+        <v>-0.001818181818181941</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7119,7 +7119,7 @@
         <v>1.300553529150479</v>
       </c>
       <c r="K80">
-        <v>56.53220030184352</v>
+        <v>0.06532200301843527</v>
       </c>
       <c r="L80">
         <v>0.005840028989490928</v>
@@ -7149,13 +7149,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U80">
-        <v>1.000070883922514</v>
+        <v>7.088392251386466E-05</v>
       </c>
       <c r="V80">
-        <v>1.000101233018161</v>
+        <v>0.0001012330181611176</v>
       </c>
       <c r="W80">
-        <v>1.000910746812386</v>
+        <v>0.0009107468123861207</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7190,7 +7190,7 @@
         <v>1.369836455620929</v>
       </c>
       <c r="K81">
-        <v>57.80299532365888</v>
+        <v>0.07802995323658879</v>
       </c>
       <c r="L81">
         <v>0.006786876869616536</v>
@@ -7220,13 +7220,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U81">
-        <v>1.000111381125962</v>
+        <v>0.0001113811259618736</v>
       </c>
       <c r="V81">
-        <v>1.000161956433719</v>
+        <v>0.0001619564337191903</v>
       </c>
       <c r="W81">
-        <v>1.00030330603579</v>
+        <v>0.0003033060357902073</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7261,7 +7261,7 @@
         <v>1.442765851905572</v>
       </c>
       <c r="K82">
-        <v>59.06279763899957</v>
+        <v>0.09062797638999565</v>
       </c>
       <c r="L82">
         <v>0.007705056321031461</v>
@@ -7291,13 +7291,13 @@
         <v>0.1843749999999886</v>
       </c>
       <c r="U82">
-        <v>1.000111368721588</v>
+        <v>0.0001113687215883452</v>
       </c>
       <c r="V82">
-        <v>1.0002024127601</v>
+        <v>0.0002024127601003567</v>
       </c>
       <c r="W82">
-        <v>1.000303214069133</v>
+        <v>0.0003032140691328067</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7332,7 +7332,7 @@
         <v>1.74983699415683</v>
       </c>
       <c r="K83">
-        <v>63.63420805942625</v>
+        <v>0.1363420805942624</v>
       </c>
       <c r="L83">
         <v>0.008961604389623769</v>
@@ -7362,13 +7362,13 @@
         <v>0.1906249999999829</v>
       </c>
       <c r="U83">
-        <v>1.000141726225426</v>
+        <v>0.0001417262254257423</v>
       </c>
       <c r="V83">
-        <v>1.0003035576962</v>
+        <v>0.0003035576961996078</v>
       </c>
       <c r="W83">
-        <v>1.001212488632919</v>
+        <v>0.001212488632919229</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7403,7 +7403,7 @@
         <v>1.619007888466008</v>
       </c>
       <c r="K84">
-        <v>61.81760259661856</v>
+        <v>0.1181760259661856</v>
       </c>
       <c r="L84">
         <v>0.01019960178362462</v>
@@ -7433,13 +7433,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U84">
-        <v>1.000141706141949</v>
+        <v>0.0001417061419488608</v>
       </c>
       <c r="V84">
-        <v>1.00026300349997</v>
+        <v>0.0002630034999695496</v>
       </c>
       <c r="W84">
-        <v>0.9996972449288525</v>
+        <v>-0.0003027550711475202</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7474,7 +7474,7 @@
         <v>1.500885874312744</v>
       </c>
       <c r="K85">
-        <v>60.01416896823391</v>
+        <v>0.1001416896823391</v>
       </c>
       <c r="L85">
         <v>0.01119954146251429</v>
@@ -7504,13 +7504,13 @@
         <v>0.1406250000000284</v>
       </c>
       <c r="U85">
-        <v>1.000091083898391</v>
+        <v>9.108389839096453E-05</v>
       </c>
       <c r="V85">
-        <v>1.000202257190243</v>
+        <v>0.0002022571902433601</v>
       </c>
       <c r="W85">
-        <v>0.9996971532404604</v>
+        <v>-0.0003028467595396211</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7545,7 +7545,7 @@
         <v>1.084457152846429</v>
       </c>
       <c r="K86">
-        <v>52.02587884167105</v>
+        <v>0.02025878841671047</v>
       </c>
       <c r="L86">
         <v>0.01139776208356094</v>
@@ -7575,13 +7575,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U86">
-        <v>1.00002023902286</v>
+        <v>2.023902286008017E-05</v>
       </c>
       <c r="V86">
-        <v>1.000101108145272</v>
+        <v>0.0001011081452719775</v>
       </c>
       <c r="W86">
-        <v>0.998485307482581</v>
+        <v>-0.001514692517418981</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7616,7 +7616,7 @@
         <v>1.1428687922786</v>
       </c>
       <c r="K87">
-        <v>53.33358703046586</v>
+        <v>0.03333587030465857</v>
       </c>
       <c r="L87">
         <v>0.01116681597556437</v>
@@ -7646,13 +7646,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U87">
-        <v>1.000050596533125</v>
+        <v>5.059653312544654E-05</v>
       </c>
       <c r="V87">
-        <v>1.000141537092828</v>
+        <v>0.000141537092828159</v>
       </c>
       <c r="W87">
-        <v>1.000303398058252</v>
+        <v>0.0003033980582523021</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7687,7 +7687,7 @@
         <v>1.017718092747673</v>
       </c>
       <c r="K88">
-        <v>50.43906264238193</v>
+        <v>0.004390626423819377</v>
       </c>
       <c r="L88">
         <v>0.0104289010619848</v>
@@ -7717,13 +7717,13 @@
         <v>0.07187500000003411</v>
       </c>
       <c r="U88">
-        <v>1.000030356383947</v>
+        <v>3.035638394743856E-05</v>
       </c>
       <c r="V88">
-        <v>1.00006065016982</v>
+        <v>6.065016982037541E-05</v>
       </c>
       <c r="W88">
-        <v>0.9993933879284198</v>
+        <v>-0.0006066120715801926</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7758,7 +7758,7 @@
         <v>1.075352695837583</v>
       </c>
       <c r="K89">
-        <v>51.81541903669466</v>
+        <v>0.01815419036694665</v>
       </c>
       <c r="L89">
         <v>0.009503573378151055</v>
@@ -7788,13 +7788,13 @@
         <v>0.046875</v>
       </c>
       <c r="U89">
-        <v>1.000020236974977</v>
+        <v>2.023697497688381E-05</v>
       </c>
       <c r="V89">
-        <v>1.000080861988801</v>
+        <v>8.086198880064011E-05</v>
       </c>
       <c r="W89">
-        <v>1.000303490136571</v>
+        <v>0.0003034901365706055</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7829,7 +7829,7 @@
         <v>1.257356705595126</v>
       </c>
       <c r="K90">
-        <v>55.70039960802909</v>
+        <v>0.05700399608029094</v>
       </c>
       <c r="L90">
         <v>0.008820704116123157</v>
@@ -7859,13 +7859,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U90">
-        <v>1.000070827979076</v>
+        <v>7.082797907576044E-05</v>
       </c>
       <c r="V90">
-        <v>1.000080855450668</v>
+        <v>8.08554506679382E-05</v>
       </c>
       <c r="W90">
-        <v>1.000910194174757</v>
+        <v>0.0009101941747571285</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7900,7 +7900,7 @@
         <v>1.321217761650429</v>
       </c>
       <c r="K91">
-        <v>56.91916473666041</v>
+        <v>0.0691916473666041</v>
       </c>
       <c r="L91">
         <v>0.00840658048239256</v>
@@ -7930,13 +7930,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U91">
-        <v>1.000080940528946</v>
+        <v>8.09405289463605E-05</v>
       </c>
       <c r="V91">
-        <v>1.000020212228398</v>
+        <v>2.021222839809766E-05</v>
       </c>
       <c r="W91">
-        <v>1.00030312215823</v>
+        <v>0.0003031221582299182</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7971,7 +7971,7 @@
         <v>1.45566209018787</v>
       </c>
       <c r="K92">
-        <v>59.27778483873181</v>
+        <v>0.09277784838731806</v>
       </c>
       <c r="L92">
         <v>0.008371987699318703</v>
@@ -8001,13 +8001,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U92">
-        <v>1.000121400967161</v>
+        <v>0.0001214009671608451</v>
       </c>
       <c r="V92">
-        <v>1.000060635459617</v>
+        <v>6.063545961665362E-05</v>
       </c>
       <c r="W92">
-        <v>1.00060606060606</v>
+        <v>0.0006060606060604989</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8042,7 +8042,7 @@
         <v>1.075240922266527</v>
       </c>
       <c r="K93">
-        <v>51.81282378973982</v>
+        <v>0.01812823789739815</v>
       </c>
       <c r="L93">
         <v>0.007986450778330562</v>
@@ -8072,13 +8072,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U93">
-        <v>1.000080924153837</v>
+        <v>8.092415383686991E-05</v>
       </c>
       <c r="V93">
-        <v>0.9999393682168195</v>
+        <v>-6.063178318049811E-05</v>
       </c>
       <c r="W93">
-        <v>0.9984857662023017</v>
+        <v>-0.001514233797698328</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8113,7 +8113,7 @@
         <v>1.295315807696784</v>
       </c>
       <c r="K94">
-        <v>56.43301036629718</v>
+        <v>0.06433010366297176</v>
       </c>
       <c r="L94">
         <v>0.007825795394093097</v>
@@ -8143,13 +8143,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U94">
-        <v>1.000080917605648</v>
+        <v>8.091760564798989E-05</v>
       </c>
       <c r="V94">
-        <v>1.000141482739106</v>
+        <v>0.0001414827391057472</v>
       </c>
       <c r="W94">
-        <v>1.001213224143161</v>
+        <v>0.001213224143160607</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8184,7 +8184,7 @@
         <v>1.411144694765323</v>
       </c>
       <c r="K95">
-        <v>58.52592330227903</v>
+        <v>0.08525923302279037</v>
       </c>
       <c r="L95">
         <v>0.008004006668637067</v>
@@ -8214,13 +8214,13 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>1.000111252705464</v>
+        <v>0.0001112527054636381</v>
       </c>
       <c r="V95">
-        <v>1.000121253763919</v>
+        <v>0.0001212537639188049</v>
       </c>
       <c r="W95">
-        <v>1.000605877006967</v>
+        <v>0.0006058770069674591</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8255,7 +8255,7 @@
         <v>1.472107266906642</v>
       </c>
       <c r="K96">
-        <v>59.54868086079031</v>
+        <v>0.09548680860790315</v>
       </c>
       <c r="L96">
         <v>0.008457361759291036</v>
@@ -8285,13 +8285,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U96">
-        <v>1.000141578601406</v>
+        <v>0.0001415786014056231</v>
       </c>
       <c r="V96">
-        <v>1.000121239063226</v>
+        <v>0.0001212390632261418</v>
       </c>
       <c r="W96">
-        <v>1.000302755071147</v>
+        <v>0.0003027550711474092</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8326,7 +8326,7 @@
         <v>0.8966907151889794</v>
       </c>
       <c r="K97">
-        <v>47.27659117051334</v>
+        <v>-0.02723408829486657</v>
       </c>
       <c r="L97">
         <v>0.007912989760995921</v>
@@ -8356,13 +8356,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U97">
-        <v>1.00005055662848</v>
+        <v>5.05566284796366E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998989796949188</v>
+        <v>-0.0001010203050811898</v>
       </c>
       <c r="W97">
-        <v>0.9969733656174334</v>
+        <v>-0.003026634382566562</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8397,7 +8397,7 @@
         <v>1.102416767564151</v>
       </c>
       <c r="K98">
-        <v>52.43569137062227</v>
+        <v>0.02435691370622262</v>
       </c>
       <c r="L98">
         <v>0.0073224996965911</v>
@@ -8427,13 +8427,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U98">
-        <v>1.000111218959799</v>
+        <v>0.0001112189597993751</v>
       </c>
       <c r="V98">
-        <v>0.9999191755910284</v>
+        <v>-8.082440897161369E-05</v>
       </c>
       <c r="W98">
-        <v>1.001517911353977</v>
+        <v>0.001517911353976942</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8468,7 +8468,7 @@
         <v>1.232349011169528</v>
       </c>
       <c r="K99">
-        <v>55.20413721167641</v>
+        <v>0.05204137211676407</v>
       </c>
       <c r="L99">
         <v>0.007046376548426259</v>
@@ -8498,13 +8498,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U99">
-        <v>1.000131425971794</v>
+        <v>0.0001314259717939414</v>
       </c>
       <c r="V99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W99">
-        <v>1.000909366474689</v>
+        <v>0.0009093664746893104</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8539,7 +8539,7 @@
         <v>1.277939272083704</v>
       </c>
       <c r="K100">
-        <v>56.10067343519356</v>
+        <v>0.0610067343519356</v>
       </c>
       <c r="L100">
         <v>0.007063008542814815</v>
@@ -8569,13 +8569,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U100">
-        <v>1.000121300339641</v>
+        <v>0.0001213003396409729</v>
       </c>
       <c r="V100">
-        <v>1.000040415471042</v>
+        <v>4.041547104249865E-05</v>
       </c>
       <c r="W100">
-        <v>1.00030284675954</v>
+        <v>0.0003028467595398432</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8610,7 +8610,7 @@
         <v>1.325929020414388</v>
       </c>
       <c r="K101">
-        <v>57.00642662681771</v>
+        <v>0.07006426626817708</v>
       </c>
       <c r="L101">
         <v>0.007340565986924875</v>
@@ -8640,13 +8640,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U101">
-        <v>1.000131392763291</v>
+        <v>0.0001313927632908829</v>
       </c>
       <c r="V101">
-        <v>1.000161655350792</v>
+        <v>0.0001616553507921559</v>
       </c>
       <c r="W101">
-        <v>1.000302755071147</v>
+        <v>0.0003027550711474092</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8681,7 +8681,7 @@
         <v>1.325929020414388</v>
       </c>
       <c r="K102">
-        <v>57.00642662681771</v>
+        <v>0.07006426626817708</v>
       </c>
       <c r="L102">
         <v>0.007731684224839832</v>
@@ -8711,13 +8711,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U102">
-        <v>1.000141481309308</v>
+        <v>0.0001414813093083556</v>
       </c>
       <c r="V102">
-        <v>1.000141425569743</v>
+        <v>0.0001414255697429478</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8752,7 +8752,7 @@
         <v>1.258983532463791</v>
       </c>
       <c r="K103">
-        <v>55.73230235506248</v>
+        <v>0.0573230235506248</v>
       </c>
       <c r="L103">
         <v>0.00802802509952839</v>
@@ -8782,13 +8782,13 @@
         <v>0.0625</v>
       </c>
       <c r="U103">
-        <v>1.000111148160498</v>
+        <v>0.0001111481604978426</v>
       </c>
       <c r="V103">
-        <v>1.000161606367291</v>
+        <v>0.0001616063672909007</v>
       </c>
       <c r="W103">
-        <v>0.9996973365617434</v>
+        <v>-0.0003026634382565785</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8823,7 +8823,7 @@
         <v>1.312130370341142</v>
       </c>
       <c r="K104">
-        <v>56.74984365814738</v>
+        <v>0.06749843658147381</v>
       </c>
       <c r="L104">
         <v>0.008329186235361885</v>
@@ -8853,13 +8853,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U104">
-        <v>1.000121239063226</v>
+        <v>0.0001212390632261418</v>
       </c>
       <c r="V104">
-        <v>1.000161580254893</v>
+        <v>0.000161580254892657</v>
       </c>
       <c r="W104">
-        <v>1.000302755071147</v>
+        <v>0.0003027550711474092</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8894,7 +8894,7 @@
         <v>1.53590652982482</v>
       </c>
       <c r="K105">
-        <v>60.56636992574487</v>
+        <v>0.1056636992574487</v>
       </c>
       <c r="L105">
         <v>0.009025247511878954</v>
@@ -8924,13 +8924,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U105">
-        <v>1.000131326396606</v>
+        <v>0.0001313263966058464</v>
       </c>
       <c r="V105">
-        <v>1.000181748419799</v>
+        <v>0.0001817484197985664</v>
       </c>
       <c r="W105">
-        <v>1.001210653753027</v>
+        <v>0.001210653753026758</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8965,7 +8965,7 @@
         <v>1.53590652982482</v>
       </c>
       <c r="K106">
-        <v>60.56636992574487</v>
+        <v>0.1056636992574487</v>
       </c>
       <c r="L106">
         <v>0.009883132984923599</v>
@@ -8995,13 +8995,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U106">
-        <v>1.000090906336172</v>
+        <v>9.090633617159227E-05</v>
       </c>
       <c r="V106">
-        <v>1.000161524794056</v>
+        <v>0.0001615247940558451</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9036,7 +9036,7 @@
         <v>1.53590652982482</v>
       </c>
       <c r="K107">
-        <v>60.56636992574487</v>
+        <v>0.1056636992574487</v>
       </c>
       <c r="L107">
         <v>0.01074821235719589</v>
@@ -9066,13 +9066,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U107">
-        <v>1.000090898072961</v>
+        <v>9.089807296103203E-05</v>
       </c>
       <c r="V107">
-        <v>1.000121124031008</v>
+        <v>0.0001211240310077244</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9107,7 +9107,7 @@
         <v>1.441826791648464</v>
       </c>
       <c r="K108">
-        <v>59.04705430294237</v>
+        <v>0.0904705430294237</v>
       </c>
       <c r="L108">
         <v>0.01141285255706587</v>
@@ -9137,13 +9137,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U108">
-        <v>1.000070692075418</v>
+        <v>7.069207541832156E-05</v>
       </c>
       <c r="V108">
-        <v>1.000201848936256</v>
+        <v>0.0002018489362560771</v>
       </c>
       <c r="W108">
-        <v>0.9996977025392986</v>
+        <v>-0.0003022974607014284</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9178,7 +9178,7 @@
         <v>1.35449259246623</v>
       </c>
       <c r="K109">
-        <v>57.52800398694214</v>
+        <v>0.07528003986942133</v>
       </c>
       <c r="L109">
         <v>0.01176169461713761</v>
@@ -9208,13 +9208,13 @@
         <v>0.1187500000000341</v>
       </c>
       <c r="U109">
-        <v>1.000121177848689</v>
+        <v>0.0001211778486893689</v>
       </c>
       <c r="V109">
-        <v>1.000100904100743</v>
+        <v>0.0001009041007427047</v>
       </c>
       <c r="W109">
-        <v>0.9996976111279106</v>
+        <v>-0.000302388872089443</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9249,7 +9249,7 @@
         <v>1.35449259246623</v>
       </c>
       <c r="K110">
-        <v>57.52800398694214</v>
+        <v>0.07528003986942133</v>
       </c>
       <c r="L110">
         <v>0.01185412075436909</v>
@@ -9279,13 +9279,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U110">
-        <v>1.000090872374798</v>
+        <v>9.087237479787902E-05</v>
       </c>
       <c r="V110">
-        <v>1.000060536352079</v>
+        <v>6.053635207936559E-05</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9320,7 +9320,7 @@
         <v>1.488723966623424</v>
       </c>
       <c r="K111">
-        <v>59.81876602583814</v>
+        <v>0.09818766025838133</v>
       </c>
       <c r="L111">
         <v>0.01196276777757561</v>
@@ -9350,13 +9350,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U111">
-        <v>1.000100960130844</v>
+        <v>0.0001009601308443742</v>
       </c>
       <c r="V111">
-        <v>1.000080710250202</v>
+        <v>8.071025020184308E-05</v>
       </c>
       <c r="W111">
-        <v>1.000604960677556</v>
+        <v>0.000604960677555999</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9391,7 +9391,7 @@
         <v>1.488723966623425</v>
       </c>
       <c r="K112">
-        <v>59.81876602583814</v>
+        <v>0.09818766025838144</v>
       </c>
       <c r="L112">
         <v>0.01203065437846003</v>
@@ -9421,13 +9421,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U112">
-        <v>1.000090854945033</v>
+        <v>9.085494503291436E-05</v>
       </c>
       <c r="V112">
-        <v>1.000282463078041</v>
+        <v>0.0002824630780406956</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9462,7 +9462,7 @@
         <v>1.488723966623425</v>
       </c>
       <c r="K113">
-        <v>59.81876602583814</v>
+        <v>0.09818766025838144</v>
       </c>
       <c r="L113">
         <v>0.01202563033385467</v>
@@ -9492,13 +9492,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U113">
-        <v>1.000050470383979</v>
+        <v>5.047038397854031E-05</v>
       </c>
       <c r="V113">
-        <v>1.000181532131187</v>
+        <v>0.000181532131187323</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9533,7 +9533,7 @@
         <v>1.488723966623425</v>
       </c>
       <c r="K114">
-        <v>59.81876602583814</v>
+        <v>0.09818766025838144</v>
       </c>
       <c r="L114">
         <v>0.01193290086937226</v>
@@ -9563,13 +9563,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U114">
-        <v>1.000060561404217</v>
+        <v>6.056140421728529E-05</v>
       </c>
       <c r="V114">
-        <v>1.000120999455502</v>
+        <v>0.0001209994555022575</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9604,7 +9604,7 @@
         <v>1.193651644315106</v>
       </c>
       <c r="K115">
-        <v>54.41391058641782</v>
+        <v>0.04413910586417824</v>
       </c>
       <c r="L115">
         <v>0.01141864142181255</v>
@@ -9634,13 +9634,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U115">
-        <v>1.000040371824504</v>
+        <v>4.037182450367105E-05</v>
       </c>
       <c r="V115">
-        <v>1.000040328272135</v>
+        <v>4.032827213507062E-05</v>
       </c>
       <c r="W115">
-        <v>0.9990931076178959</v>
+        <v>-0.0009068923821040631</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9675,7 +9675,7 @@
         <v>1.332742772690198</v>
       </c>
       <c r="K116">
-        <v>57.13200736458543</v>
+        <v>0.07132007364585424</v>
       </c>
       <c r="L116">
         <v>0.01086080815537075</v>
@@ -9705,13 +9705,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U116">
-        <v>1.000111018035384</v>
+        <v>0.0001110180353842694</v>
       </c>
       <c r="V116">
-        <v>1.000060489968747</v>
+        <v>6.048996874685741E-05</v>
       </c>
       <c r="W116">
-        <v>1.000605143721634</v>
+        <v>0.000605143721633894</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9746,7 +9746,7 @@
         <v>1.332742772690198</v>
       </c>
       <c r="K117">
-        <v>57.13200736458543</v>
+        <v>0.07132007364585424</v>
       </c>
       <c r="L117">
         <v>0.01027257264046914</v>
@@ -9776,13 +9776,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U117">
-        <v>1.000100914283408</v>
+        <v>0.0001009142834076382</v>
       </c>
       <c r="V117">
-        <v>1.000060486309932</v>
+        <v>6.048630993205073E-05</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9817,7 +9817,7 @@
         <v>1.237390917326239</v>
       </c>
       <c r="K118">
-        <v>55.30508360179474</v>
+        <v>0.05305083601794747</v>
       </c>
       <c r="L118">
         <v>0.009555764463084366</v>
@@ -9847,13 +9847,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U118">
-        <v>1.000110994510817</v>
+        <v>0.0001109945108170862</v>
       </c>
       <c r="V118">
-        <v>1.000060482651559</v>
+        <v>6.048265155933485E-05</v>
       </c>
       <c r="W118">
-        <v>0.9996976111279106</v>
+        <v>-0.000302388872089443</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9888,7 +9888,7 @@
         <v>1.312702054722035</v>
       </c>
       <c r="K119">
-        <v>56.76053480567386</v>
+        <v>0.06760534805673868</v>
       </c>
       <c r="L119">
         <v>0.008882204691645213</v>
@@ -9918,13 +9918,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U119">
-        <v>1.000110982192403</v>
+        <v>0.0001109821924027976</v>
       </c>
       <c r="V119">
-        <v>1.00006047899363</v>
+        <v>6.047899362959797E-05</v>
       </c>
       <c r="W119">
-        <v>1.000302480338778</v>
+        <v>0.0003024803387778885</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9959,7 +9959,7 @@
         <v>1.471251817660599</v>
       </c>
       <c r="K120">
-        <v>59.53467822042328</v>
+        <v>0.09534678220423276</v>
       </c>
       <c r="L120">
         <v>0.008465842833128833</v>
@@ -9989,13 +9989,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U120">
-        <v>1.000100881706111</v>
+        <v>0.0001008817061112222</v>
       </c>
       <c r="V120">
-        <v>1.000020158445381</v>
+        <v>2.015844538072464E-05</v>
       </c>
       <c r="W120">
-        <v>1.000604777744179</v>
+        <v>0.000604777744178886</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10030,7 +10030,7 @@
         <v>1.888488035920002</v>
       </c>
       <c r="K121">
-        <v>65.3798115981639</v>
+        <v>0.1537981159816389</v>
       </c>
       <c r="L121">
         <v>0.008751948325935453</v>
@@ -10060,13 +10060,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U121">
-        <v>1.000141220142027</v>
+        <v>0.0001412201420272208</v>
       </c>
       <c r="V121">
-        <v>1.000120948234156</v>
+        <v>0.0001209482341557599</v>
       </c>
       <c r="W121">
-        <v>1.001511030522817</v>
+        <v>0.001511030522816537</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10101,7 +10101,7 @@
         <v>2.152005647452266</v>
       </c>
       <c r="K122">
-        <v>68.27416851843873</v>
+        <v>0.1827416851843873</v>
       </c>
       <c r="L122">
         <v>0.009743887058669515</v>
@@ -10131,13 +10131,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U122">
-        <v>1.000151285930408</v>
+        <v>0.0001512859304084735</v>
       </c>
       <c r="V122">
-        <v>1.000181400411174</v>
+        <v>0.000181400411174204</v>
       </c>
       <c r="W122">
-        <v>1.000905250452625</v>
+        <v>0.0009052504526252392</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10172,7 +10172,7 @@
         <v>2.429392606959912</v>
       </c>
       <c r="K123">
-        <v>70.8403173795117</v>
+        <v>0.2084031737951171</v>
       </c>
       <c r="L123">
         <v>0.01139497796669327</v>
@@ -10202,13 +10202,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U123">
-        <v>1.000231936671204</v>
+        <v>0.000231936671204469</v>
       </c>
       <c r="V123">
-        <v>1.000261975293715</v>
+        <v>0.0002619752937147446</v>
       </c>
       <c r="W123">
-        <v>1.000904431715405</v>
+        <v>0.0009044317154054404</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10243,7 +10243,7 @@
         <v>2.429392606959912</v>
       </c>
       <c r="K124">
-        <v>70.8403173795117</v>
+        <v>0.2084031737951171</v>
       </c>
       <c r="L124">
         <v>0.01329823796702309</v>
@@ -10273,13 +10273,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U124">
-        <v>1.000191555430092</v>
+        <v>0.000191555430092194</v>
       </c>
       <c r="V124">
-        <v>1.000282053348376</v>
+        <v>0.0002820533483762766</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10314,7 +10314,7 @@
         <v>2.20362800085026</v>
       </c>
       <c r="K125">
-        <v>68.78538957286568</v>
+        <v>0.1878538957286569</v>
       </c>
       <c r="L125">
         <v>0.01507393034387914</v>
@@ -10344,13 +10344,13 @@
         <v>0.171875</v>
       </c>
       <c r="U125">
-        <v>1.00016127894201</v>
+        <v>0.0001612789420102345</v>
       </c>
       <c r="V125">
-        <v>1.000261832829809</v>
+        <v>0.0002618328298087391</v>
       </c>
       <c r="W125">
-        <v>0.9996987951807228</v>
+        <v>-0.000301204819277201</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10385,7 +10385,7 @@
         <v>2.79055730931714</v>
       </c>
       <c r="K126">
-        <v>73.61865503149066</v>
+        <v>0.2361865503149067</v>
       </c>
       <c r="L126">
         <v>0.01726471718558125</v>
@@ -10415,13 +10415,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U126">
-        <v>1.000211644477591</v>
+        <v>0.0002116444775910331</v>
       </c>
       <c r="V126">
-        <v>1.000342307150192</v>
+        <v>0.0003423071501922337</v>
       </c>
       <c r="W126">
-        <v>1.001807773425731</v>
+        <v>0.001807773425730685</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10456,7 +10456,7 @@
         <v>2.893527363434155</v>
       </c>
       <c r="K127">
-        <v>74.31634847641129</v>
+        <v>0.2431634847641129</v>
       </c>
       <c r="L127">
         <v>0.01961385505421651</v>
@@ -10486,13 +10486,13 @@
         <v>0.2937500000000171</v>
       </c>
       <c r="U127">
-        <v>1.000322437628471</v>
+        <v>0.0003224376284713948</v>
       </c>
       <c r="V127">
-        <v>1.000362318840579</v>
+        <v>0.0003623188405794675</v>
       </c>
       <c r="W127">
-        <v>1.000300751879699</v>
+        <v>0.0003007518796993569</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10527,7 +10527,7 @@
         <v>3.110306424733075</v>
       </c>
       <c r="K128">
-        <v>75.67091363352696</v>
+        <v>0.2567091363352696</v>
       </c>
       <c r="L128">
         <v>0.02205717185389837</v>
@@ -10557,13 +10557,13 @@
         <v>0.3499999999999943</v>
       </c>
       <c r="U128">
-        <v>1.000292114911963</v>
+        <v>0.000292114911962571</v>
       </c>
       <c r="V128">
-        <v>1.000402430681315</v>
+        <v>0.0004024306813152911</v>
       </c>
       <c r="W128">
-        <v>1.000601322910403</v>
+        <v>0.000601322910402935</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10598,7 +10598,7 @@
         <v>2.135646529939937</v>
       </c>
       <c r="K129">
-        <v>68.10865030698614</v>
+        <v>0.1810865030698614</v>
       </c>
       <c r="L129">
         <v>0.02388027856957551</v>
@@ -10628,13 +10628,13 @@
         <v>0.3625000000000114</v>
       </c>
       <c r="U129">
-        <v>1.000221539700922</v>
+        <v>0.0002215397009215359</v>
       </c>
       <c r="V129">
-        <v>1.000321815036808</v>
+        <v>0.0003218150368078376</v>
       </c>
       <c r="W129">
-        <v>0.9987980769230769</v>
+        <v>-0.001201923076923128</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10669,7 +10669,7 @@
         <v>1.972948577244318</v>
       </c>
       <c r="K130">
-        <v>66.3633603468877</v>
+        <v>0.163633603468877</v>
       </c>
       <c r="L130">
         <v>0.02501396650671025</v>
@@ -10699,13 +10699,13 @@
         <v>0.3531250000000057</v>
       </c>
       <c r="U130">
-        <v>1.000201355119957</v>
+        <v>0.000201355119957114</v>
       </c>
       <c r="V130">
-        <v>1.000361925443358</v>
+        <v>0.0003619254433584462</v>
       </c>
       <c r="W130">
-        <v>0.9996991576413961</v>
+        <v>-0.0003008423586039477</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10740,7 +10740,7 @@
         <v>2.053140219651692</v>
       </c>
       <c r="K131">
-        <v>67.24683676290238</v>
+        <v>0.1724683676290237</v>
       </c>
       <c r="L131">
         <v>0.02567639417376572</v>
@@ -10770,13 +10770,13 @@
         <v>0.3187499999999943</v>
       </c>
       <c r="U131">
-        <v>1.000201314584235</v>
+        <v>0.0002013145842350017</v>
       </c>
       <c r="V131">
-        <v>1.000341694806239</v>
+        <v>0.0003416948062389125</v>
       </c>
       <c r="W131">
-        <v>1.000300932891965</v>
+        <v>0.0003009328919649779</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10811,7 +10811,7 @@
         <v>1.443777602660349</v>
       </c>
       <c r="K132">
-        <v>59.07974609017701</v>
+        <v>0.0907974609017701</v>
       </c>
       <c r="L132">
         <v>0.02536736562592095</v>
@@ -10841,13 +10841,13 @@
         <v>0.2750000000000057</v>
       </c>
       <c r="U132">
-        <v>1.000150955548623</v>
+        <v>0.0001509555486229885</v>
       </c>
       <c r="V132">
-        <v>1.000241113946432</v>
+        <v>0.0002411139464322254</v>
       </c>
       <c r="W132">
-        <v>0.9984957882069796</v>
+        <v>-0.001504211793020405</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10882,7 +10882,7 @@
         <v>1.631227342586229</v>
       </c>
       <c r="K133">
-        <v>61.99492214849434</v>
+        <v>0.1199492214849434</v>
       </c>
       <c r="L133">
         <v>0.02472730465047953</v>
@@ -10912,13 +10912,13 @@
         <v>0.2468750000000171</v>
       </c>
       <c r="U133">
-        <v>1.00019118150168</v>
+        <v>0.0001911815016804042</v>
       </c>
       <c r="V133">
-        <v>1.000321407766015</v>
+        <v>0.0003214077660151915</v>
       </c>
       <c r="W133">
-        <v>1.000903886712865</v>
+        <v>0.0009038867128654537</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10953,7 +10953,7 @@
         <v>1.960086535438638</v>
       </c>
       <c r="K134">
-        <v>66.21720385441989</v>
+        <v>0.1621720385441989</v>
       </c>
       <c r="L134">
         <v>0.02438711046287406</v>
@@ -10983,13 +10983,13 @@
         <v>0.1937499999999659</v>
       </c>
       <c r="U134">
-        <v>1.000231386002153</v>
+        <v>0.000231386002152778</v>
       </c>
       <c r="V134">
-        <v>1.000401630620319</v>
+        <v>0.000401630620318727</v>
       </c>
       <c r="W134">
-        <v>1.001505117399157</v>
+        <v>0.001505117399157152</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11024,7 +11024,7 @@
         <v>2.029320049723371</v>
       </c>
       <c r="K135">
-        <v>66.98929186794518</v>
+        <v>0.1698929186794519</v>
       </c>
       <c r="L135">
         <v>0.0242709117546525</v>
@@ -11054,13 +11054,13 @@
         <v>0.140625</v>
       </c>
       <c r="U135">
-        <v>1.000201158673962</v>
+        <v>0.0002011586739620874</v>
       </c>
       <c r="V135">
-        <v>1.000381395909027</v>
+        <v>0.0003813959090266383</v>
       </c>
       <c r="W135">
-        <v>1.000300571085062</v>
+        <v>0.0003005710850616516</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11095,7 +11095,7 @@
         <v>2.029320049723371</v>
       </c>
       <c r="K136">
-        <v>66.98929186794518</v>
+        <v>0.1698929186794519</v>
       </c>
       <c r="L136">
         <v>0.02420898224144549</v>
@@ -11125,13 +11125,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U136">
-        <v>1.000201118217289</v>
+        <v>0.0002011182172885206</v>
       </c>
       <c r="V136">
-        <v>1.000280921422265</v>
+        <v>0.0002809214222652123</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11166,7 +11166,7 @@
         <v>2.106033084941869</v>
       </c>
       <c r="K137">
-        <v>67.80459278273543</v>
+        <v>0.1780459278273543</v>
       </c>
       <c r="L137">
         <v>0.02420521045440252</v>
@@ -11196,13 +11196,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U137">
-        <v>1.000211131665728</v>
+        <v>0.0002111316657280593</v>
       </c>
       <c r="V137">
-        <v>1.0002407221665</v>
+        <v>0.0002407221664997294</v>
       </c>
       <c r="W137">
-        <v>1.000300480769231</v>
+        <v>0.0003004807692306155</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11237,7 +11237,7 @@
         <v>2.348284775105637</v>
       </c>
       <c r="K138">
-        <v>70.13396209799836</v>
+        <v>0.2013396209799836</v>
       </c>
       <c r="L138">
         <v>0.02447787653968563</v>
@@ -11267,13 +11267,13 @@
         <v>0.07499999999996021</v>
       </c>
       <c r="U138">
-        <v>1.00025129416495</v>
+        <v>0.0002512941649495115</v>
       </c>
       <c r="V138">
-        <v>1.000240664233284</v>
+        <v>0.0002406642332839493</v>
       </c>
       <c r="W138">
-        <v>1.00090117152298</v>
+        <v>0.00090117152297986</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11308,7 +11308,7 @@
         <v>2.164316582100993</v>
       </c>
       <c r="K139">
-        <v>68.39759947988404</v>
+        <v>0.1839759947988404</v>
       </c>
       <c r="L139">
         <v>0.02470111627074896</v>
@@ -11338,13 +11338,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U139">
-        <v>1.000251231032057</v>
+        <v>0.0002512310320572642</v>
       </c>
       <c r="V139">
-        <v>1.000220555800617</v>
+        <v>0.0002205558006174169</v>
       </c>
       <c r="W139">
-        <v>0.9996998799519808</v>
+        <v>-0.000300120048019159</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11379,7 +11379,7 @@
         <v>2.246781337454126</v>
       </c>
       <c r="K140">
-        <v>69.20026647731927</v>
+        <v>0.1920026647731927</v>
       </c>
       <c r="L140">
         <v>0.02489962417259156</v>
@@ -11409,13 +11409,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U140">
-        <v>1.000261214648114</v>
+        <v>0.0002612146481135724</v>
       </c>
       <c r="V140">
-        <v>1.000260599378571</v>
+        <v>0.0002605993785709249</v>
       </c>
       <c r="W140">
-        <v>1.000300210147103</v>
+        <v>0.0003002101471027974</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11450,7 +11450,7 @@
         <v>2.333586343089052</v>
       </c>
       <c r="K141">
-        <v>70.00227691497696</v>
+        <v>0.2000227691497696</v>
       </c>
       <c r="L141">
         <v>0.0250891721063545</v>
@@ -11480,13 +11480,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U141">
-        <v>1.000251102339269</v>
+        <v>0.0002511023392692824</v>
       </c>
       <c r="V141">
-        <v>1.000160327067217</v>
+        <v>0.0001603270672170254</v>
       </c>
       <c r="W141">
-        <v>1.000300120048019</v>
+        <v>0.0003001200480192701</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11521,7 +11521,7 @@
         <v>2.138210187919564</v>
       </c>
       <c r="K142">
-        <v>68.13470290009678</v>
+        <v>0.1813470290009679</v>
       </c>
       <c r="L142">
         <v>0.0250597136324655</v>
@@ -11551,13 +11551,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U142">
-        <v>1.000240997730605</v>
+        <v>0.0002409977306048194</v>
       </c>
       <c r="V142">
-        <v>1.000120226024927</v>
+        <v>0.000120226024927117</v>
       </c>
       <c r="W142">
-        <v>0.9996999699969996</v>
+        <v>-0.0003000300030003844</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11592,7 +11592,7 @@
         <v>2.138210187919563</v>
       </c>
       <c r="K143">
-        <v>68.13470290009678</v>
+        <v>0.1813470290009679</v>
       </c>
       <c r="L143">
         <v>0.02480796427420709</v>
@@ -11622,13 +11622,13 @@
         <v>0.1687499999999602</v>
       </c>
       <c r="U143">
-        <v>1.000240939664692</v>
+        <v>0.0002409396646922968</v>
       </c>
       <c r="V143">
-        <v>1.000080141048245</v>
+        <v>8.014104824494162E-05</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11663,7 +11663,7 @@
         <v>2.323747161999895</v>
       </c>
       <c r="K144">
-        <v>69.91347562675914</v>
+        <v>0.1991347562675914</v>
       </c>
       <c r="L144">
         <v>0.02456641150059658</v>
@@ -11693,13 +11693,13 @@
         <v>0.1875</v>
       </c>
       <c r="U144">
-        <v>1.00026095509565</v>
+        <v>0.0002609550956500506</v>
       </c>
       <c r="V144">
-        <v>1.00020033656543</v>
+        <v>0.0002003365654297262</v>
       </c>
       <c r="W144">
-        <v>1.000600240096038</v>
+        <v>0.0006002400960383181</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11734,7 +11734,7 @@
         <v>2.519049239979247</v>
       </c>
       <c r="K145">
-        <v>71.5832336575689</v>
+        <v>0.215832336575689</v>
       </c>
       <c r="L145">
         <v>0.02447594131593852</v>
@@ -11764,13 +11764,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U145">
-        <v>1.000311057595826</v>
+        <v>0.0003110575958256145</v>
       </c>
       <c r="V145">
-        <v>1.000260385370348</v>
+        <v>0.0002603853703482262</v>
       </c>
       <c r="W145">
-        <v>1.000599880023995</v>
+        <v>0.0005998800239952473</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11805,7 +11805,7 @@
         <v>2.519049239979247</v>
       </c>
       <c r="K146">
-        <v>71.5832336575689</v>
+        <v>0.215832336575689</v>
       </c>
       <c r="L146">
         <v>0.02439321241000936</v>
@@ -11835,13 +11835,13 @@
         <v>0.1781250000000227</v>
       </c>
       <c r="U146">
-        <v>1.000290898877532</v>
+        <v>0.0002908988775316423</v>
       </c>
       <c r="V146">
-        <v>1.000240293157652</v>
+        <v>0.0002402931576521716</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11876,7 +11876,7 @@
         <v>2.627249837197663</v>
       </c>
       <c r="K147">
-        <v>72.43090371815747</v>
+        <v>0.2243090371815747</v>
       </c>
       <c r="L147">
         <v>0.02434086440001685</v>
@@ -11906,13 +11906,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U147">
-        <v>1.000300842358604</v>
+        <v>0.0003008423586041697</v>
       </c>
       <c r="V147">
-        <v>1.000360353146084</v>
+        <v>0.0003603531460836251</v>
       </c>
       <c r="W147">
-        <v>1.000299760191846</v>
+        <v>0.0002997601918464099</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11947,7 +11947,7 @@
         <v>3.082831299170135</v>
       </c>
       <c r="K148">
-        <v>75.50719276098287</v>
+        <v>0.2550719276098288</v>
       </c>
       <c r="L148">
         <v>0.02465949847301703</v>
@@ -11977,13 +11977,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U148">
-        <v>1.000350877192983</v>
+        <v>0.000350877192982546</v>
       </c>
       <c r="V148">
-        <v>1.000380235746162</v>
+        <v>0.0003802357461624162</v>
       </c>
       <c r="W148">
-        <v>1.001198681450405</v>
+        <v>0.001198681450404582</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12018,7 +12018,7 @@
         <v>3.202721157583893</v>
       </c>
       <c r="K149">
-        <v>76.20589226588396</v>
+        <v>0.2620589226588396</v>
       </c>
       <c r="L149">
         <v>0.02520165331869108</v>
@@ -12048,13 +12048,13 @@
         <v>0.15625</v>
       </c>
       <c r="U149">
-        <v>1.000350754121361</v>
+        <v>0.0003507541213609855</v>
       </c>
       <c r="V149">
-        <v>1.000300072017284</v>
+        <v>0.0003000720172841032</v>
       </c>
       <c r="W149">
-        <v>1.000299311583358</v>
+        <v>0.0002993115833582749</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12089,7 +12089,7 @@
         <v>2.843830209041988</v>
       </c>
       <c r="K150">
-        <v>73.98428271759606</v>
+        <v>0.2398428271759606</v>
       </c>
       <c r="L150">
         <v>0.02564274825774603</v>
@@ -12119,13 +12119,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U150">
-        <v>1.00032057703867</v>
+        <v>0.0003205770386696116</v>
       </c>
       <c r="V150">
-        <v>1.000259984400936</v>
+        <v>0.0002599844009361085</v>
       </c>
       <c r="W150">
-        <v>0.9997007779772592</v>
+        <v>-0.0002992220227407971</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12160,7 +12160,7 @@
         <v>3.197697992635097</v>
       </c>
       <c r="K151">
-        <v>76.17741910555476</v>
+        <v>0.2617741910555477</v>
       </c>
       <c r="L151">
         <v>0.0262291161778278</v>
@@ -12190,13 +12190,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U151">
-        <v>1.000300444658094</v>
+        <v>0.000300444658093646</v>
       </c>
       <c r="V151">
-        <v>1.000319897632758</v>
+        <v>0.0003198976327576375</v>
       </c>
       <c r="W151">
-        <v>1.000897934750075</v>
+        <v>0.0008979347500746027</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12231,7 +12231,7 @@
         <v>2.561584217518896</v>
       </c>
       <c r="K152">
-        <v>71.92260693763325</v>
+        <v>0.2192260693763325</v>
       </c>
       <c r="L152">
         <v>0.02655106383069548</v>
@@ -12261,13 +12261,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U152">
-        <v>1.000250295348512</v>
+        <v>0.0002502953485115089</v>
       </c>
       <c r="V152">
-        <v>1.000259833706428</v>
+        <v>0.0002598337064279033</v>
       </c>
       <c r="W152">
-        <v>0.9994019138755981</v>
+        <v>-0.0005980861244019309</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12302,7 +12302,7 @@
         <v>1.805461878189532</v>
       </c>
       <c r="K153">
-        <v>64.35524546691268</v>
+        <v>0.1435524546691268</v>
       </c>
       <c r="L153">
         <v>0.02615760487760642</v>
@@ -12332,13 +12332,13 @@
         <v>0.1843750000000455</v>
       </c>
       <c r="U153">
-        <v>1.000180167555827</v>
+        <v>0.0001801675558268379</v>
       </c>
       <c r="V153">
-        <v>1.000119892097112</v>
+        <v>0.000119892097112384</v>
       </c>
       <c r="W153">
-        <v>0.9988031119090366</v>
+        <v>-0.001196888090963411</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12373,7 +12373,7 @@
         <v>2.038496843373099</v>
       </c>
       <c r="K154">
-        <v>67.08898999908524</v>
+        <v>0.1708898999908525</v>
       </c>
       <c r="L154">
         <v>0.02558887428372098</v>
@@ -12403,13 +12403,13 @@
         <v>0.1875</v>
       </c>
       <c r="U154">
-        <v>1.000210157618214</v>
+        <v>0.0002101576182138576</v>
       </c>
       <c r="V154">
-        <v>1.000199796207868</v>
+        <v>0.0001997962078681415</v>
       </c>
       <c r="W154">
-        <v>1.000898741761534</v>
+        <v>0.0008987417615338167</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12444,7 +12444,7 @@
         <v>1.751988385531412</v>
       </c>
       <c r="K155">
-        <v>63.66263734042253</v>
+        <v>0.1366263734042253</v>
       </c>
       <c r="L155">
         <v>0.02463815680232795</v>
@@ -12474,13 +12474,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U155">
-        <v>1.000200108058352</v>
+        <v>0.000200108058351578</v>
       </c>
       <c r="V155">
-        <v>1.000139829408122</v>
+        <v>0.0001398294081220719</v>
       </c>
       <c r="W155">
-        <v>0.9994013768332833</v>
+        <v>-0.0005986231667166608</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12515,7 +12515,7 @@
         <v>1.825961482752557</v>
       </c>
       <c r="K156">
-        <v>64.61381352494674</v>
+        <v>0.1461381352494674</v>
       </c>
       <c r="L156">
         <v>0.02353631558270384</v>
@@ -12545,13 +12545,13 @@
         <v>0.1437500000000398</v>
       </c>
       <c r="U156">
-        <v>1.000150051017346</v>
+        <v>0.0001500510173459979</v>
       </c>
       <c r="V156">
-        <v>1.000139809858592</v>
+        <v>0.0001398098585922991</v>
       </c>
       <c r="W156">
-        <v>1.000299490865529</v>
+        <v>0.0002994908655287176</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12586,7 +12586,7 @@
         <v>1.694051741517871</v>
       </c>
       <c r="K157">
-        <v>62.88118804145223</v>
+        <v>0.1288118804145223</v>
       </c>
       <c r="L157">
         <v>0.022218116932984</v>
@@ -12616,13 +12616,13 @@
         <v>0.1062499999999602</v>
       </c>
       <c r="U157">
-        <v>1.000130024704694</v>
+        <v>0.0001300247046938097</v>
       </c>
       <c r="V157">
-        <v>1.000139790314528</v>
+        <v>0.0001397903145281543</v>
       </c>
       <c r="W157">
-        <v>0.9997005988023951</v>
+        <v>-0.0002994011976048538</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12657,7 +12657,7 @@
         <v>1.770095163301934</v>
       </c>
       <c r="K158">
-        <v>63.90015717698279</v>
+        <v>0.139001571769828</v>
       </c>
       <c r="L158">
         <v>0.02088131718836439</v>
@@ -12687,13 +12687,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U158">
-        <v>1.000120007200432</v>
+        <v>0.0001200072004319264</v>
       </c>
       <c r="V158">
-        <v>1.000159738029631</v>
+        <v>0.0001597380296314288</v>
       </c>
       <c r="W158">
-        <v>1.000299490865529</v>
+        <v>0.0002994908655287176</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12728,7 +12728,7 @@
         <v>1.770095163301934</v>
       </c>
       <c r="K159">
-        <v>63.90015717698279</v>
+        <v>0.139001571769828</v>
       </c>
       <c r="L159">
         <v>0.01954239612938449</v>
@@ -12758,13 +12758,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U159">
-        <v>1.000159990400576</v>
+        <v>0.0001599904005760155</v>
       </c>
       <c r="V159">
-        <v>1.000119784388102</v>
+        <v>0.0001197843881015626</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12799,7 +12799,7 @@
         <v>1.938612441493716</v>
       </c>
       <c r="K160">
-        <v>65.97033396170835</v>
+        <v>0.1597033396170835</v>
       </c>
       <c r="L160">
         <v>0.01843483582861525</v>
@@ -12829,13 +12829,13 @@
         <v>0</v>
       </c>
       <c r="U160">
-        <v>1.000189958209194</v>
+        <v>0.0001899582091942076</v>
       </c>
       <c r="V160">
-        <v>1.00011977004152</v>
+        <v>0.0001197700415200842</v>
       </c>
       <c r="W160">
-        <v>1.000598802395209</v>
+        <v>0.0005988023952094856</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12870,7 +12870,7 @@
         <v>2.027305745805205</v>
       </c>
       <c r="K161">
-        <v>66.96732725507977</v>
+        <v>0.1696732725507977</v>
       </c>
       <c r="L161">
         <v>0.01757997909704225</v>
@@ -12900,13 +12900,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U161">
-        <v>1.000189922131926</v>
+        <v>0.0001899221319259237</v>
       </c>
       <c r="V161">
-        <v>1.000139714981438</v>
+        <v>0.000139714981438166</v>
       </c>
       <c r="W161">
-        <v>1.000299222022741</v>
+        <v>0.0002992220227409081</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12941,7 +12941,7 @@
         <v>1.583728534638505</v>
       </c>
       <c r="K162">
-        <v>61.29624352583495</v>
+        <v>0.1129624352583495</v>
       </c>
       <c r="L162">
         <v>0.01654091011557833</v>
@@ -12971,13 +12971,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U162">
-        <v>1.000209874075555</v>
+        <v>0.0002098740755545059</v>
       </c>
       <c r="V162">
-        <v>1.000059869484524</v>
+        <v>5.986948452352259E-05</v>
       </c>
       <c r="W162">
-        <v>0.9991026024528866</v>
+        <v>-0.0008973975471133766</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13012,7 +13012,7 @@
         <v>1.660500934187627</v>
       </c>
       <c r="K163">
-        <v>62.41309344605263</v>
+        <v>0.1241309344605264</v>
       </c>
       <c r="L163">
         <v>0.01550547514627353</v>
@@ -13042,13 +13042,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U163">
-        <v>1.000189846224558</v>
+        <v>0.0001898462245581989</v>
       </c>
       <c r="V163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W163">
-        <v>1.000299401197605</v>
+        <v>0.0002994011976049649</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13083,7 +13083,7 @@
         <v>1.741313986344552</v>
       </c>
       <c r="K164">
-        <v>63.52114332829616</v>
+        <v>0.1352114332829616</v>
       </c>
       <c r="L164">
         <v>0.01459092618763102</v>
@@ -13113,13 +13113,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U164">
-        <v>1.00014985014985</v>
+        <v>0.0001498501498500282</v>
       </c>
       <c r="V164">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W164">
-        <v>1.000299311583358</v>
+        <v>0.0002993115833582749</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13154,7 +13154,7 @@
         <v>1.488133717450203</v>
       </c>
       <c r="K165">
-        <v>59.80923400592864</v>
+        <v>0.09809234005928635</v>
       </c>
       <c r="L165">
         <v>0.01353640553785833</v>
@@ -13184,13 +13184,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U165">
-        <v>1.000119862158518</v>
+        <v>0.0001198621585178916</v>
       </c>
       <c r="V165">
-        <v>0.9999800446998723</v>
+        <v>-1.995530012766089E-05</v>
       </c>
       <c r="W165">
-        <v>0.9994015559545183</v>
+        <v>-0.0005984440454817053</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13225,7 +13225,7 @@
         <v>1.488133717450203</v>
       </c>
       <c r="K166">
-        <v>59.80923400592864</v>
+        <v>0.09809234005928635</v>
       </c>
       <c r="L166">
         <v>0.01241505847832449</v>
@@ -13255,13 +13255,13 @@
         <v>0.015625</v>
       </c>
       <c r="U166">
-        <v>1.000119847793302</v>
+        <v>0.00011984779330243</v>
       </c>
       <c r="V166">
-        <v>0.9999201772066014</v>
+        <v>-7.982279339857623E-05</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13296,7 +13296,7 @@
         <v>1.488133717450203</v>
       </c>
       <c r="K167">
-        <v>59.80923400592864</v>
+        <v>0.09809234005928635</v>
       </c>
       <c r="L167">
         <v>0.01127952385041127</v>
@@ -13326,13 +13326,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U167">
-        <v>1.000109847312236</v>
+        <v>0.0001098473122358445</v>
       </c>
       <c r="V167">
-        <v>0.999960085417207</v>
+        <v>-3.991458279295479E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13367,7 +13367,7 @@
         <v>1.488133717450203</v>
       </c>
       <c r="K168">
-        <v>59.80923400592864</v>
+        <v>0.09809234005928635</v>
       </c>
       <c r="L168">
         <v>0.01016671725608944</v>
@@ -13397,13 +13397,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U168">
-        <v>1.000079880179731</v>
+        <v>7.988017973059591E-05</v>
       </c>
       <c r="V168">
-        <v>1.00003991617603</v>
+        <v>3.991617603049669E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13438,7 +13438,7 @@
         <v>1.577387853730896</v>
       </c>
       <c r="K169">
-        <v>61.20102767798604</v>
+        <v>0.1120102767798604</v>
       </c>
       <c r="L169">
         <v>0.009210695260718101</v>
@@ -13468,13 +13468,13 @@
         <v>0</v>
       </c>
       <c r="U169">
-        <v>1.000099842249246</v>
+        <v>9.984224924619589E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W169">
-        <v>1.000299401197605</v>
+        <v>0.0002994011976049649</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13509,7 +13509,7 @@
         <v>1.441917245003503</v>
       </c>
       <c r="K170">
-        <v>59.04857127954942</v>
+        <v>0.09048571279549422</v>
       </c>
       <c r="L170">
         <v>0.008267933459408898</v>
@@ -13539,13 +13539,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U170">
-        <v>1.000079865825413</v>
+        <v>7.986582541330556E-05</v>
       </c>
       <c r="V170">
-        <v>1.000019957291396</v>
+        <v>1.995729139636637E-05</v>
       </c>
       <c r="W170">
-        <v>0.9997006884166416</v>
+        <v>-0.0002993115833583859</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13580,7 +13580,7 @@
         <v>1.134288023779579</v>
       </c>
       <c r="K171">
-        <v>53.14596770172027</v>
+        <v>0.03145967701720276</v>
       </c>
       <c r="L171">
         <v>0.007035955416577511</v>
@@ -13610,13 +13610,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U171">
-        <v>1.000039929723686</v>
+        <v>3.99297236863827E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999401293206674</v>
+        <v>-5.987067933255208E-05</v>
       </c>
       <c r="W171">
-        <v>0.9991017964071855</v>
+        <v>-0.0008982035928144505</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13651,7 +13651,7 @@
         <v>1.209146742611385</v>
       </c>
       <c r="K172">
-        <v>54.73365436929186</v>
+        <v>0.04733654369291862</v>
       </c>
       <c r="L172">
         <v>0.005790813306086172</v>
@@ -13681,13 +13681,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U172">
-        <v>1.000059892194051</v>
+        <v>5.989219405067026E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999800419119846</v>
+        <v>-1.995808801535937E-05</v>
       </c>
       <c r="W172">
-        <v>1.000299670362601</v>
+        <v>0.0002996703626012565</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13722,7 +13722,7 @@
         <v>1.120827080234199</v>
       </c>
       <c r="K173">
-        <v>52.84858396425361</v>
+        <v>0.02848583964253615</v>
       </c>
       <c r="L173">
         <v>0.004486919220379331</v>
@@ -13752,13 +13752,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U173">
-        <v>1.000049907172659</v>
+        <v>4.990717265895839E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999401245409547</v>
+        <v>-5.987545904528879E-05</v>
       </c>
       <c r="W173">
-        <v>0.999700419412822</v>
+        <v>-0.0002995805871780499</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13793,7 +13793,7 @@
         <v>1.274601741958692</v>
       </c>
       <c r="K174">
-        <v>56.03625981843812</v>
+        <v>0.06036259818438117</v>
       </c>
       <c r="L174">
         <v>0.00343233267168163</v>
@@ -13823,13 +13823,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U174">
-        <v>1.000049904682057</v>
+        <v>4.990468205701148E-05</v>
       </c>
       <c r="V174">
-        <v>0.9999800403185567</v>
+        <v>-1.995968144330451E-05</v>
       </c>
       <c r="W174">
-        <v>1.000599340725202</v>
+        <v>0.0005993407252022909</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13864,7 +13864,7 @@
         <v>1.35553577444529</v>
       </c>
       <c r="K175">
-        <v>57.5468133046932</v>
+        <v>0.07546813304693201</v>
       </c>
       <c r="L175">
         <v>0.002692526872433344</v>
@@ -13894,13 +13894,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U175">
-        <v>1.000039921753364</v>
+        <v>3.992175336353654E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999600798403194</v>
+        <v>-3.992015968057316E-05</v>
       </c>
       <c r="W175">
-        <v>1.000299490865529</v>
+        <v>0.0002994908655287176</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13935,7 +13935,7 @@
         <v>1.440729492852236</v>
       </c>
       <c r="K176">
-        <v>59.02864275092606</v>
+        <v>0.09028642750926064</v>
       </c>
       <c r="L176">
         <v>0.002289795154570604</v>
@@ -13965,13 +13965,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U176">
-        <v>1.000049900199601</v>
+        <v>4.990019960082748E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999600782466365</v>
+        <v>-3.992175336353654E-05</v>
       </c>
       <c r="W176">
-        <v>1.000299401197605</v>
+        <v>0.0002994011976049649</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14006,7 +14006,7 @@
         <v>1.440729492852236</v>
       </c>
       <c r="K177">
-        <v>59.02864275092606</v>
+        <v>0.09028642750926064</v>
       </c>
       <c r="L177">
         <v>0.002108577279519757</v>
@@ -14036,13 +14036,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U177">
-        <v>1.000039918167756</v>
+        <v>3.991816775616996E-05</v>
       </c>
       <c r="V177">
-        <v>1.000019961673587</v>
+        <v>1.996167358675471E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14077,7 +14077,7 @@
         <v>1.440729492852236</v>
       </c>
       <c r="K178">
-        <v>59.02864275092606</v>
+        <v>0.09028642750926064</v>
       </c>
       <c r="L178">
         <v>0.002065415844826201</v>
@@ -14107,13 +14107,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V178">
-        <v>1</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14148,7 +14148,7 @@
         <v>1.639461012681764</v>
       </c>
       <c r="K179">
-        <v>62.11347713812326</v>
+        <v>0.1211347713812326</v>
       </c>
       <c r="L179">
         <v>0.002319207436787882</v>
@@ -14178,13 +14178,13 @@
         <v>0</v>
       </c>
       <c r="U179">
-        <v>1.00000997914359</v>
+        <v>9.979143590133077E-06</v>
       </c>
       <c r="V179">
-        <v>1.000019961275126</v>
+        <v>1.996127512593482E-05</v>
       </c>
       <c r="W179">
-        <v>1.000598623166717</v>
+        <v>0.0005986231667165498</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14219,7 +14219,7 @@
         <v>1.639461012681764</v>
       </c>
       <c r="K180">
-        <v>62.11347713812325</v>
+        <v>0.1211347713812325</v>
       </c>
       <c r="L180">
         <v>0.002728258541120458</v>
@@ -14249,13 +14249,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U180">
-        <v>1.000019958088015</v>
+        <v>1.995808801513732E-05</v>
       </c>
       <c r="V180">
-        <v>1.000059882630045</v>
+        <v>5.988263004508276E-05</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14290,7 +14290,7 @@
         <v>1.47685810130005</v>
       </c>
       <c r="K181">
-        <v>59.62627009294068</v>
+        <v>0.09626270092940681</v>
       </c>
       <c r="L181">
         <v>0.003086301244577708</v>
@@ -14320,13 +14320,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U181">
-        <v>0.9999800423103021</v>
+        <v>-1.995768969786926E-05</v>
       </c>
       <c r="V181">
-        <v>1.000039919362887</v>
+        <v>3.991936288683107E-05</v>
       </c>
       <c r="W181">
-        <v>0.9997008674842954</v>
+        <v>-0.0002991325157045699</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14361,7 +14361,7 @@
         <v>1.47685810130005</v>
       </c>
       <c r="K182">
-        <v>59.62627009294068</v>
+        <v>0.09626270092940681</v>
       </c>
       <c r="L182">
         <v>0.003379372500499994</v>
@@ -14391,13 +14391,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V182">
-        <v>1.000039917769395</v>
+        <v>3.991776939527014E-05</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14432,7 +14432,7 @@
         <v>1.330628033232369</v>
       </c>
       <c r="K183">
-        <v>57.09311028010372</v>
+        <v>0.0709311028010372</v>
       </c>
       <c r="L183">
         <v>0.003493053700454328</v>
@@ -14462,13 +14462,13 @@
         <v>0.06875000000005116</v>
       </c>
       <c r="U183">
-        <v>1.000029937132023</v>
+        <v>2.993713202270598E-05</v>
       </c>
       <c r="V183">
-        <v>1.000019958088015</v>
+        <v>1.995808801491528E-05</v>
       </c>
       <c r="W183">
-        <v>0.9997007779772592</v>
+        <v>-0.0002992220227407971</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14503,7 +14503,7 @@
         <v>1.330628033232369</v>
       </c>
       <c r="K184">
-        <v>57.09311028010372</v>
+        <v>0.0709311028010372</v>
       </c>
       <c r="L184">
         <v>0.003478095133083569</v>
@@ -14533,13 +14533,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U184">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V184">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14574,7 +14574,7 @@
         <v>1.199076041603952</v>
       </c>
       <c r="K185">
-        <v>54.52635647512105</v>
+        <v>0.04526356475121052</v>
       </c>
       <c r="L185">
         <v>0.003264468644339789</v>
@@ -14604,13 +14604,13 @@
         <v>0.0625</v>
       </c>
       <c r="U185">
-        <v>1.000009978745273</v>
+        <v>9.978745272753997E-06</v>
       </c>
       <c r="V185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W185">
-        <v>0.9997006884166416</v>
+        <v>-0.0002993115833583859</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14645,7 +14645,7 @@
         <v>1.407212015299119</v>
       </c>
       <c r="K186">
-        <v>58.45816680689256</v>
+        <v>0.08458166806892553</v>
       </c>
       <c r="L186">
         <v>0.00315027328809068</v>
@@ -14675,13 +14675,13 @@
         <v>0.0625</v>
       </c>
       <c r="U186">
-        <v>1.000019957291396</v>
+        <v>1.995729139636637E-05</v>
       </c>
       <c r="V186">
-        <v>1.000099788448489</v>
+        <v>9.978844848923529E-05</v>
       </c>
       <c r="W186">
-        <v>1.000598802395209</v>
+        <v>0.0005988023952094856</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14716,7 +14716,7 @@
         <v>1.059140563906393</v>
       </c>
       <c r="K187">
-        <v>51.43604970304207</v>
+        <v>0.01436049703042075</v>
       </c>
       <c r="L187">
         <v>0.002765051168648376</v>
@@ -14746,13 +14746,13 @@
         <v>0.03125</v>
       </c>
       <c r="U187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V187">
-        <v>1.00001995569835</v>
+        <v>1.995569834956079E-05</v>
       </c>
       <c r="W187">
-        <v>0.9991023339317774</v>
+        <v>-0.0008976660682226134</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14787,7 +14787,7 @@
         <v>1.145929429048418</v>
       </c>
       <c r="K188">
-        <v>53.40014510899196</v>
+        <v>0.03400145108991959</v>
       </c>
       <c r="L188">
         <v>0.002339154682444834</v>
@@ -14817,13 +14817,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V188">
-        <v>1.000059865900383</v>
+        <v>5.986590038320472E-05</v>
       </c>
       <c r="W188">
-        <v>1.000299490865529</v>
+        <v>0.0002994908655287176</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14858,7 +14858,7 @@
         <v>1.511356229646313</v>
       </c>
       <c r="K189">
-        <v>60.18087803732906</v>
+        <v>0.1018087803732906</v>
       </c>
       <c r="L189">
         <v>0.002343302770031266</v>
@@ -14888,13 +14888,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U189">
-        <v>1.000039913786222</v>
+        <v>3.991378622170139E-05</v>
       </c>
       <c r="V189">
-        <v>1.000099770527786</v>
+        <v>9.977052778609163E-05</v>
       </c>
       <c r="W189">
-        <v>1.001197604790419</v>
+        <v>0.001197604790419193</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14929,7 +14929,7 @@
         <v>1.703686124697892</v>
       </c>
       <c r="K190">
-        <v>63.01345815014901</v>
+        <v>0.1301345815014902</v>
       </c>
       <c r="L190">
         <v>0.002817180827608254</v>
@@ -14959,13 +14959,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U190">
-        <v>1.000039912193175</v>
+        <v>3.99121931748958E-05</v>
       </c>
       <c r="V190">
-        <v>1.000119712689545</v>
+        <v>0.0001197126895449152</v>
       </c>
       <c r="W190">
-        <v>1.000598086124402</v>
+        <v>0.0005980861244021529</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15000,7 +15000,7 @@
         <v>1.41684273997742</v>
       </c>
       <c r="K191">
-        <v>58.62370424608832</v>
+        <v>0.08623704246088315</v>
       </c>
       <c r="L191">
         <v>0.0033171126964498</v>
@@ -15030,13 +15030,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U191">
-        <v>1.000009977650064</v>
+        <v>9.977650063941468E-06</v>
       </c>
       <c r="V191">
-        <v>1.000059849180067</v>
+        <v>5.984918006651796E-05</v>
       </c>
       <c r="W191">
-        <v>0.9994022713687984</v>
+        <v>-0.0005977286312015551</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15071,7 +15071,7 @@
         <v>1.41684273997742</v>
       </c>
       <c r="K192">
-        <v>58.62370424608832</v>
+        <v>0.08623704246088315</v>
       </c>
       <c r="L192">
         <v>0.003788864185693994</v>
@@ -15101,13 +15101,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U192">
-        <v>1.000039910202046</v>
+        <v>3.991020204563434E-05</v>
       </c>
       <c r="V192">
-        <v>1.000059845598356</v>
+        <v>5.98455983560342E-05</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15142,7 +15142,7 @@
         <v>1.41684273997742</v>
       </c>
       <c r="K193">
-        <v>58.62370424608832</v>
+        <v>0.08623704246088315</v>
       </c>
       <c r="L193">
         <v>0.004199657745092864</v>
@@ -15172,13 +15172,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U193">
-        <v>1.000029931456964</v>
+        <v>2.993145696361665E-05</v>
       </c>
       <c r="V193">
-        <v>1.000059842017075</v>
+        <v>5.984201707498471E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15213,7 +15213,7 @@
         <v>1.290165162031845</v>
       </c>
       <c r="K194">
-        <v>56.33502698500594</v>
+        <v>0.06335026985005943</v>
       </c>
       <c r="L194">
         <v>0.00442303072325984</v>
@@ -15243,13 +15243,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U194">
-        <v>1.000009976853699</v>
+        <v>9.976853699189547E-06</v>
       </c>
       <c r="V194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W194">
-        <v>0.9997009569377991</v>
+        <v>-0.0002990430622008544</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15284,7 +15284,7 @@
         <v>1.085789122530168</v>
       </c>
       <c r="K195">
-        <v>52.05651476468776</v>
+        <v>0.02056514764687767</v>
       </c>
       <c r="L195">
         <v>0.004284532715418512</v>
@@ -15314,13 +15314,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U195">
-        <v>1.000009976754163</v>
+        <v>9.976754163032453E-06</v>
       </c>
       <c r="V195">
-        <v>0.9999601077091852</v>
+        <v>-3.98922908148025E-05</v>
       </c>
       <c r="W195">
-        <v>0.9994017349685911</v>
+        <v>-0.0005982650314089177</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15355,7 +15355,7 @@
         <v>1.252537287409193</v>
       </c>
       <c r="K196">
-        <v>55.60561835803514</v>
+        <v>0.05605618358035136</v>
       </c>
       <c r="L196">
         <v>0.004138034729733718</v>
@@ -15385,13 +15385,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U196">
-        <v>1.000029929963884</v>
+        <v>2.992996388440083E-05</v>
       </c>
       <c r="V196">
-        <v>1.000019946941137</v>
+        <v>1.9946941136606E-05</v>
       </c>
       <c r="W196">
-        <v>1.000598623166717</v>
+        <v>0.0005986231667165498</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15426,7 +15426,7 @@
         <v>1.151480807637109</v>
       </c>
       <c r="K197">
-        <v>53.52038482284846</v>
+        <v>0.03520384822848466</v>
       </c>
       <c r="L197">
         <v>0.00387197132446799</v>
@@ -15456,13 +15456,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U197">
-        <v>1.000019952712073</v>
+        <v>1.995271207255733E-05</v>
       </c>
       <c r="V197">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W197">
-        <v>0.9997008674842954</v>
+        <v>-0.0002991325157045699</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15497,7 +15497,7 @@
         <v>0.9176729587494408</v>
       </c>
       <c r="K198">
-        <v>47.85346503232108</v>
+        <v>-0.02146534967678915</v>
       </c>
       <c r="L198">
         <v>0.003209404939318108</v>
@@ -15527,13 +15527,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U198">
-        <v>0.9999900238430152</v>
+        <v>-9.97615698483667E-06</v>
       </c>
       <c r="V198">
-        <v>0.9999601069134719</v>
+        <v>-3.989308652807555E-05</v>
       </c>
       <c r="W198">
-        <v>0.9991023339317774</v>
+        <v>-0.0008976660682226134</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15568,7 +15568,7 @@
         <v>0.9889184725008443</v>
       </c>
       <c r="K199">
-        <v>49.72141825689763</v>
+        <v>-0.00278581743102374</v>
       </c>
       <c r="L199">
         <v>0.002446182012620295</v>
@@ -15598,13 +15598,13 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>0.9999900237434903</v>
+        <v>-9.97625650966949E-06</v>
       </c>
       <c r="V199">
-        <v>0.999980052660975</v>
+        <v>-1.99473390249949E-05</v>
       </c>
       <c r="W199">
-        <v>1.000299490865529</v>
+        <v>0.0002994908655287176</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15639,7 +15639,7 @@
         <v>1.0639137501339</v>
       </c>
       <c r="K200">
-        <v>51.54836291317294</v>
+        <v>0.0154836291317294</v>
       </c>
       <c r="L200">
         <v>0.001770692969206491</v>
@@ -15669,13 +15669,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U200">
-        <v>1.000009976356036</v>
+        <v>9.976356036389689E-06</v>
       </c>
       <c r="V200">
-        <v>1.000019947736929</v>
+        <v>1.994773692914897E-05</v>
       </c>
       <c r="W200">
-        <v>1.000299401197605</v>
+        <v>0.0002994011976049649</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15710,7 +15710,7 @@
         <v>1.774395327710043</v>
       </c>
       <c r="K201">
-        <v>63.95611000306184</v>
+        <v>0.1395611000306184</v>
       </c>
       <c r="L201">
         <v>0.002165680872577143</v>
@@ -15740,13 +15740,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U201">
-        <v>1.000129691334624</v>
+        <v>0.0001296913346235939</v>
       </c>
       <c r="V201">
-        <v>1.0001595787122</v>
+        <v>0.0001595787121997372</v>
       </c>
       <c r="W201">
-        <v>1.002693804250224</v>
+        <v>0.002693804250224474</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15781,7 +15781,7 @@
         <v>1.521526036738146</v>
       </c>
       <c r="K202">
-        <v>60.34147633495774</v>
+        <v>0.1034147633495774</v>
       </c>
       <c r="L202">
         <v>0.002958136328712974</v>
@@ -15811,13 +15811,13 @@
         <v>0</v>
       </c>
       <c r="U202">
-        <v>1.000099749628432</v>
+        <v>9.974962843228852E-05</v>
       </c>
       <c r="V202">
-        <v>1.00017949740726</v>
+        <v>0.0001794974072597544</v>
       </c>
       <c r="W202">
-        <v>0.9994029850746269</v>
+        <v>-0.0005970149253731183</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15852,7 +15852,7 @@
         <v>1.415366044741149</v>
       </c>
       <c r="K203">
-        <v>58.59840779921338</v>
+        <v>0.08598407799213381</v>
       </c>
       <c r="L203">
         <v>0.003821096328200378</v>
@@ -15882,13 +15882,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U203">
-        <v>1.000099739679437</v>
+        <v>9.973967943688322E-05</v>
       </c>
       <c r="V203">
-        <v>1.000139584039562</v>
+        <v>0.0001395840395619352</v>
       </c>
       <c r="W203">
-        <v>0.9997013142174431</v>
+        <v>-0.0002986857825568734</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15923,7 +15923,7 @@
         <v>1.709143100929784</v>
       </c>
       <c r="K204">
-        <v>63.08795944899338</v>
+        <v>0.1308795944899338</v>
       </c>
       <c r="L204">
         <v>0.005093649622452376</v>
@@ -15953,13 +15953,13 @@
         <v>0.02812499999996021</v>
       </c>
       <c r="U204">
-        <v>1.00011967567891</v>
+        <v>0.0001196756789101361</v>
       </c>
       <c r="V204">
-        <v>1.000139564558577</v>
+        <v>0.000139564558577332</v>
       </c>
       <c r="W204">
-        <v>1.001195100089633</v>
+        <v>0.001195100089632639</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15994,7 +15994,7 @@
         <v>1.863762604186938</v>
       </c>
       <c r="K205">
-        <v>65.08090445283561</v>
+        <v>0.1508090445283561</v>
       </c>
       <c r="L205">
         <v>0.006732476298972495</v>
@@ -16024,13 +16024,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U205">
-        <v>1.000129633138219</v>
+        <v>0.0001296331382187876</v>
       </c>
       <c r="V205">
-        <v>1.000139545083029</v>
+        <v>0.0001395450830292688</v>
       </c>
       <c r="W205">
-        <v>1.000596836765145</v>
+        <v>0.0005968367651447704</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16065,7 +16065,7 @@
         <v>1.863762604186938</v>
       </c>
       <c r="K206">
-        <v>65.08090445283561</v>
+        <v>0.1508090445283561</v>
       </c>
       <c r="L206">
         <v>0.008464035484337553</v>
@@ -16095,13 +16095,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U206">
-        <v>1.000119645848289</v>
+        <v>0.0001196458482890517</v>
       </c>
       <c r="V206">
-        <v>1.000179390073749</v>
+        <v>0.0001793900737492304</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16136,7 +16136,7 @@
         <v>1.591159509493543</v>
       </c>
       <c r="K207">
-        <v>61.40723886985036</v>
+        <v>0.1140723886985036</v>
       </c>
       <c r="L207">
         <v>0.009892489810214939</v>
@@ -16166,13 +16166,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U207">
-        <v>1.000099692945727</v>
+        <v>9.969294572709231E-05</v>
       </c>
       <c r="V207">
-        <v>1.000139500587895</v>
+        <v>0.0001395005878954692</v>
       </c>
       <c r="W207">
-        <v>0.9994035192365046</v>
+        <v>-0.0005964807634953884</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16207,7 +16207,7 @@
         <v>1.591159509493543</v>
       </c>
       <c r="K208">
-        <v>61.40723886985036</v>
+        <v>0.1140723886985036</v>
       </c>
       <c r="L208">
         <v>0.0110100974377523</v>
@@ -16237,13 +16237,13 @@
         <v>0.2218749999999829</v>
       </c>
       <c r="U208">
-        <v>1.000099683008034</v>
+        <v>9.968300803442354E-05</v>
       </c>
       <c r="V208">
-        <v>1.000139481130195</v>
+        <v>0.0001394811301953514</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16278,7 +16278,7 @@
         <v>1.591159509493543</v>
       </c>
       <c r="K209">
-        <v>61.40723886985036</v>
+        <v>0.1140723886985036</v>
       </c>
       <c r="L209">
         <v>0.01182793539907912</v>
@@ -16308,13 +16308,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U209">
-        <v>1.000079738457858</v>
+        <v>7.97384578583582E-05</v>
       </c>
       <c r="V209">
-        <v>1.00015938477477</v>
+        <v>0.000159384774769622</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16349,7 +16349,7 @@
         <v>1.591159509493543</v>
       </c>
       <c r="K210">
-        <v>61.40723886985037</v>
+        <v>0.1140723886985037</v>
       </c>
       <c r="L210">
         <v>0.01236886833617481</v>
@@ -16379,13 +16379,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U210">
-        <v>1.000079732100143</v>
+        <v>7.973210014333709E-05</v>
       </c>
       <c r="V210">
-        <v>1.000199199219139</v>
+        <v>0.0001991992191390235</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16420,7 +16420,7 @@
         <v>1.253510792566714</v>
       </c>
       <c r="K211">
-        <v>55.62479650425745</v>
+        <v>0.05624796504257457</v>
       </c>
       <c r="L211">
         <v>0.01233578366611737</v>
@@ -16450,13 +16450,13 @@
         <v>0.1843749999999886</v>
       </c>
       <c r="U211">
-        <v>1.000059794307582</v>
+        <v>5.97943075819618E-05</v>
       </c>
       <c r="V211">
-        <v>1.000099579773357</v>
+        <v>9.957977335650625E-05</v>
       </c>
       <c r="W211">
-        <v>0.9991047448522828</v>
+        <v>-0.0008952551477171555</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16491,7 +16491,7 @@
         <v>1.402425132458523</v>
       </c>
       <c r="K212">
-        <v>58.37539382646028</v>
+        <v>0.08375393826460287</v>
       </c>
       <c r="L212">
         <v>0.01212996788757699</v>
@@ -16521,13 +16521,13 @@
         <v>0.15625</v>
       </c>
       <c r="U212">
-        <v>1.000079720976582</v>
+        <v>7.972097658193178E-05</v>
       </c>
       <c r="V212">
-        <v>1.00015931177314</v>
+        <v>0.0001593117731399918</v>
       </c>
       <c r="W212">
-        <v>1.000597371565114</v>
+        <v>0.0005973715651135247</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16562,7 +16562,7 @@
         <v>1.212381918655066</v>
       </c>
       <c r="K213">
-        <v>54.79984755037629</v>
+        <v>0.04799847550376291</v>
       </c>
       <c r="L213">
         <v>0.01157071540881991</v>
@@ -16592,13 +16592,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U213">
-        <v>1.000069750293948</v>
+        <v>6.975029394773458E-05</v>
       </c>
       <c r="V213">
-        <v>1.000179197196559</v>
+        <v>0.0001791971965592332</v>
       </c>
       <c r="W213">
-        <v>0.9994029850746269</v>
+        <v>-0.0005970149253731183</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16633,7 +16633,7 @@
         <v>1.283703190494875</v>
       </c>
       <c r="K214">
-        <v>56.21147248196901</v>
+        <v>0.06211472481969016</v>
       </c>
       <c r="L214">
         <v>0.0108997796200378</v>
@@ -16663,13 +16663,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U214">
-        <v>1.000079709061924</v>
+        <v>7.970906192400484E-05</v>
       </c>
       <c r="V214">
-        <v>1.000179165090678</v>
+        <v>0.0001791650906777242</v>
       </c>
       <c r="W214">
-        <v>1.000298685782557</v>
+        <v>0.0002986857825566513</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16704,7 +16704,7 @@
         <v>1.584003282452092</v>
       </c>
       <c r="K215">
-        <v>61.30035875763095</v>
+        <v>0.1130035875763095</v>
       </c>
       <c r="L215">
         <v>0.01059962606986303</v>
@@ -16734,13 +16734,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U215">
-        <v>1.000129516901956</v>
+        <v>0.0001295169019555065</v>
       </c>
       <c r="V215">
-        <v>1.000238843995064</v>
+        <v>0.0002388439950637977</v>
       </c>
       <c r="W215">
-        <v>1.001194386383995</v>
+        <v>0.001194386383995383</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16775,7 +16775,7 @@
         <v>1.584003282452092</v>
       </c>
       <c r="K216">
-        <v>61.30035875763095</v>
+        <v>0.1130035875763095</v>
       </c>
       <c r="L216">
         <v>0.01050449537807662</v>
@@ -16805,13 +16805,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U216">
-        <v>1.000109577032654</v>
+        <v>0.000109577032654018</v>
       </c>
       <c r="V216">
-        <v>1.000059696740558</v>
+        <v>5.969674055794627E-05</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16846,7 +16846,7 @@
         <v>1.358060988905417</v>
       </c>
       <c r="K217">
-        <v>57.59227582725977</v>
+        <v>0.07592275827259765</v>
       </c>
       <c r="L217">
         <v>0.01028364481742699</v>
@@ -16876,13 +16876,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U217">
-        <v>1.000119525483829</v>
+        <v>0.0001195254838293192</v>
       </c>
       <c r="V217">
-        <v>1.00005969317707</v>
+        <v>5.969317706977506E-05</v>
       </c>
       <c r="W217">
-        <v>0.9994035192365046</v>
+        <v>-0.0005964807634953884</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16917,7 +16917,7 @@
         <v>1.433134694825642</v>
       </c>
       <c r="K218">
-        <v>58.90075456461075</v>
+        <v>0.08900754564610747</v>
       </c>
       <c r="L218">
         <v>0.01007205126718173</v>
@@ -16947,13 +16947,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U218">
-        <v>1.000119511199195</v>
+        <v>0.0001195111991951769</v>
       </c>
       <c r="V218">
-        <v>1.000099482690012</v>
+        <v>9.948269001203158E-05</v>
       </c>
       <c r="W218">
-        <v>1.000298418382572</v>
+        <v>0.0002984183825722742</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16988,7 +16988,7 @@
         <v>1.32817567382839</v>
       </c>
       <c r="K219">
-        <v>57.04791475826966</v>
+        <v>0.07047914758269658</v>
       </c>
       <c r="L219">
         <v>0.009734037843121743</v>
@@ -17018,13 +17018,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U219">
-        <v>1.000069706535486</v>
+        <v>6.970653548576955E-05</v>
       </c>
       <c r="V219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W219">
-        <v>0.9997016706443915</v>
+        <v>-0.0002983293556084732</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17059,7 +17059,7 @@
         <v>1.32817567382839</v>
       </c>
       <c r="K220">
-        <v>57.04791475826966</v>
+        <v>0.07047914758269658</v>
       </c>
       <c r="L220">
         <v>0.009305535420565716</v>
@@ -17089,13 +17089,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U220">
-        <v>1.000049786912017</v>
+        <v>4.9786912016625E-05</v>
       </c>
       <c r="V220">
-        <v>0.9999602108823237</v>
+        <v>-3.978911767632543E-05</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17130,7 +17130,7 @@
         <v>1.14271439702069</v>
       </c>
       <c r="K221">
-        <v>53.33022443913023</v>
+        <v>0.03330224439130225</v>
       </c>
       <c r="L221">
         <v>0.008598095240647866</v>
@@ -17160,13 +17160,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U221">
-        <v>1.000049784433403</v>
+        <v>4.97844334033104E-05</v>
       </c>
       <c r="V221">
-        <v>0.9999204185981737</v>
+        <v>-7.95814018262897E-05</v>
       </c>
       <c r="W221">
-        <v>0.9994031632348551</v>
+        <v>-0.0005968367651448814</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17201,7 +17201,7 @@
         <v>0.9362842603554735</v>
       </c>
       <c r="K222">
-        <v>48.35469045147252</v>
+        <v>-0.01645309548527479</v>
       </c>
       <c r="L222">
         <v>0.007409222537683222</v>
@@ -17231,13 +17231,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U222">
-        <v>1.000019912782015</v>
+        <v>1.991278201485258E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999005153305873</v>
+        <v>-9.948466941267498E-05</v>
       </c>
       <c r="W222">
-        <v>0.9991042102120037</v>
+        <v>-0.000895789787996315</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17272,7 +17272,7 @@
         <v>0.9362842603554734</v>
       </c>
       <c r="K223">
-        <v>48.35469045147251</v>
+        <v>-0.01645309548527485</v>
       </c>
       <c r="L223">
         <v>0.00597760054598828</v>
@@ -17302,13 +17302,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U223">
-        <v>1.000019912385504</v>
+        <v>1.991238550380636E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999005054324033</v>
+        <v>-9.949456759672515E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17343,7 +17343,7 @@
         <v>1.003005934632374</v>
       </c>
       <c r="K224">
-        <v>50.07503558977038</v>
+        <v>0.0007503558977037805</v>
       </c>
       <c r="L224">
         <v>0.004577202471923417</v>
@@ -17373,13 +17373,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U224">
-        <v>1.000039823978017</v>
+        <v>3.982397801705062E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999203964257996</v>
+        <v>-7.960357420044861E-05</v>
       </c>
       <c r="W224">
-        <v>1.000298864315601</v>
+        <v>0.0002988643156005555</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17414,7 +17414,7 @@
         <v>0.9371843465208245</v>
       </c>
       <c r="K225">
-        <v>48.3786867369646</v>
+        <v>-0.01621313263035395</v>
       </c>
       <c r="L225">
         <v>0.003159565146004358</v>
@@ -17444,13 +17444,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U225">
-        <v>1.000049777990164</v>
+        <v>4.977799016403495E-05</v>
       </c>
       <c r="V225">
-        <v>0.9999004876107076</v>
+        <v>-9.951238929239992E-05</v>
       </c>
       <c r="W225">
-        <v>0.999701224977592</v>
+        <v>-0.0002987750224080488</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17485,7 +17485,7 @@
         <v>0.9371843465208243</v>
       </c>
       <c r="K226">
-        <v>48.3786867369646</v>
+        <v>-0.01621313263035407</v>
       </c>
       <c r="L226">
         <v>0.001810325874057587</v>
@@ -17515,13 +17515,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U226">
-        <v>1.000029865307463</v>
+        <v>2.986530746329485E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999601910828024</v>
+        <v>-3.980891719757018E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17556,7 +17556,7 @@
         <v>1.082612215059962</v>
       </c>
       <c r="K227">
-        <v>51.98337968207835</v>
+        <v>0.01983379682078346</v>
       </c>
       <c r="L227">
         <v>0.0007993751303782726</v>
@@ -17586,13 +17586,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U227">
-        <v>1.000059728831107</v>
+        <v>5.972883110683114E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999601894979896</v>
+        <v>-3.98105020104067E-05</v>
       </c>
       <c r="W227">
-        <v>1.000597728631201</v>
+        <v>0.000597728631201333</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17627,7 +17627,7 @@
         <v>0.9388857393947323</v>
       </c>
       <c r="K228">
-        <v>48.42398498881254</v>
+        <v>-0.01576015011187459</v>
       </c>
       <c r="L228">
         <v>-0.000162620643932896</v>
@@ -17657,13 +17657,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U228">
-        <v>1.000069679474418</v>
+        <v>6.967947441771649E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999601879130506</v>
+        <v>-3.981208694936456E-05</v>
       </c>
       <c r="W228">
-        <v>0.9994026284348866</v>
+        <v>-0.0005973715651134137</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17698,7 +17698,7 @@
         <v>1.078632016881221</v>
       </c>
       <c r="K229">
-        <v>51.89143668149594</v>
+        <v>0.01891436681495939</v>
       </c>
       <c r="L229">
         <v>-0.0008156066059022995</v>
@@ -17728,13 +17728,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U229">
-        <v>1.000079628136602</v>
+        <v>7.962813660200574E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999800931639924</v>
+        <v>-1.990683600761045E-05</v>
       </c>
       <c r="W229">
-        <v>1.000597728631201</v>
+        <v>0.000597728631201333</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17769,7 +17769,7 @@
         <v>1.078632016881221</v>
       </c>
       <c r="K230">
-        <v>51.89143668149594</v>
+        <v>0.01891436681495939</v>
       </c>
       <c r="L230">
         <v>-0.001236818667798127</v>
@@ -17799,13 +17799,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U230">
-        <v>1.000069669071908</v>
+        <v>6.966907190841809E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999004638385126</v>
+        <v>-9.95361614873902E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17840,7 +17840,7 @@
         <v>1.078632016881221</v>
       </c>
       <c r="K231">
-        <v>51.89143668149594</v>
+        <v>0.01891436681495939</v>
       </c>
       <c r="L231">
         <v>-0.001486276434316329</v>
@@ -17870,13 +17870,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U231">
-        <v>0.9999800959375809</v>
+        <v>-1.990406241914044E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999004539300788</v>
+        <v>-9.954606992124138E-05</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17911,7 +17911,7 @@
         <v>1.078632016881221</v>
       </c>
       <c r="K232">
-        <v>51.89143668149594</v>
+        <v>0.01891436681495939</v>
       </c>
       <c r="L232">
         <v>-0.001610373896304708</v>
@@ -17941,13 +17941,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U232">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V232">
-        <v>0.9999402664118034</v>
+        <v>-5.973358819655328E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17982,7 +17982,7 @@
         <v>0.9934113462869318</v>
       </c>
       <c r="K233">
-        <v>49.83473923419417</v>
+        <v>-0.001652607658058303</v>
       </c>
       <c r="L233">
         <v>-0.001753495319837331</v>
@@ -18012,13 +18012,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U233">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V233">
-        <v>0.999900438072481</v>
+        <v>-9.956192751903181E-05</v>
       </c>
       <c r="W233">
-        <v>0.9997013142174431</v>
+        <v>-0.0002986857825568734</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18053,7 +18053,7 @@
         <v>1.159744196865524</v>
       </c>
       <c r="K234">
-        <v>53.69822030538069</v>
+        <v>0.03698220305380684</v>
       </c>
       <c r="L234">
         <v>-0.001675152567487048</v>
@@ -18083,13 +18083,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U234">
-        <v>0.9999800955414011</v>
+        <v>-1.990445859889611E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999601712635667</v>
+        <v>-3.982873643326723E-05</v>
       </c>
       <c r="W234">
-        <v>1.000597550044816</v>
+        <v>0.0005975500448163196</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18124,7 +18124,7 @@
         <v>1.06638868632783</v>
       </c>
       <c r="K235">
-        <v>51.60639396564373</v>
+        <v>0.01606393965643738</v>
       </c>
       <c r="L235">
         <v>-0.001570271353684353</v>
@@ -18154,13 +18154,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U235">
-        <v>0.999950237863015</v>
+        <v>-4.976213698504317E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999402545157631</v>
+        <v>-5.974548423692827E-05</v>
       </c>
       <c r="W235">
-        <v>0.9997014034040013</v>
+        <v>-0.0002985965959987347</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18195,7 +18195,7 @@
         <v>1.235855295820427</v>
       </c>
       <c r="K236">
-        <v>55.27438641179779</v>
+        <v>0.05274386411797782</v>
       </c>
       <c r="L236">
         <v>-0.001232780268723412</v>
@@ -18225,13 +18225,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U236">
-        <v>0.9999701412319726</v>
+        <v>-2.985876802741316E-05</v>
       </c>
       <c r="V236">
-        <v>1.000019916351324</v>
+        <v>1.991635132414515E-05</v>
       </c>
       <c r="W236">
-        <v>1.000597371565114</v>
+        <v>0.0005973715651135247</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18266,7 +18266,7 @@
         <v>1.235855295820427</v>
       </c>
       <c r="K237">
-        <v>55.27438641179779</v>
+        <v>0.05274386411797782</v>
       </c>
       <c r="L237">
         <v>-0.0007713746026049968</v>
@@ -18296,13 +18296,13 @@
         <v>0.046875</v>
       </c>
       <c r="U237">
-        <v>0.9999900467801336</v>
+        <v>-9.953219866409846E-06</v>
       </c>
       <c r="V237">
-        <v>1.000079663818685</v>
+        <v>7.966381868529382E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18337,7 +18337,7 @@
         <v>1.235855295820428</v>
       </c>
       <c r="K238">
-        <v>55.27438641179779</v>
+        <v>0.05274386411797782</v>
       </c>
       <c r="L238">
         <v>-0.0002614877296306633</v>
@@ -18367,13 +18367,13 @@
         <v>0.04687499999997158</v>
       </c>
       <c r="U238">
-        <v>0.9999900466810658</v>
+        <v>-9.953318934163846E-06</v>
       </c>
       <c r="V238">
-        <v>1.000079657472867</v>
+        <v>7.965747286653446E-05</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18408,7 +18408,7 @@
         <v>1.124702360562834</v>
       </c>
       <c r="K239">
-        <v>52.93458422406517</v>
+        <v>0.02934584224065173</v>
       </c>
       <c r="L239">
         <v>0.0001374785279385143</v>
@@ -18438,13 +18438,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U239">
-        <v>0.9999800931639924</v>
+        <v>-1.990683600761045E-05</v>
       </c>
       <c r="V239">
-        <v>1.000039825564029</v>
+        <v>3.982556402948312E-05</v>
       </c>
       <c r="W239">
-        <v>0.9997014925373133</v>
+        <v>-0.0002985074626866702</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18479,7 +18479,7 @@
         <v>1.124702360562835</v>
       </c>
       <c r="K240">
-        <v>52.93458422406518</v>
+        <v>0.02934584224065173</v>
       </c>
       <c r="L240">
         <v>0.0004433181764501598</v>
@@ -18509,13 +18509,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U240">
-        <v>0.9999800927677025</v>
+        <v>-1.990723229750024E-05</v>
       </c>
       <c r="V240">
-        <v>1.000059735967026</v>
+        <v>5.973596702579798E-05</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18550,7 +18550,7 @@
         <v>1.224358968837564</v>
       </c>
       <c r="K241">
-        <v>55.0432275541122</v>
+        <v>0.05043227554112195</v>
       </c>
       <c r="L241">
         <v>0.0007803832890370586</v>
@@ -18580,13 +18580,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U241">
-        <v>1.000019907628603</v>
+        <v>1.99076286031552E-05</v>
       </c>
       <c r="V241">
-        <v>1.000079643198471</v>
+        <v>7.964319847086898E-05</v>
       </c>
       <c r="W241">
-        <v>1.000298596595999</v>
+        <v>0.0002985965959989567</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18621,7 +18621,7 @@
         <v>1.224358968837564</v>
       </c>
       <c r="K242">
-        <v>55.04322755411221</v>
+        <v>0.05043227554112206</v>
       </c>
       <c r="L242">
         <v>0.001112040143156828</v>
@@ -18651,13 +18651,13 @@
         <v>0.04375000000004547</v>
       </c>
       <c r="U242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V242">
-        <v>1.000039818427969</v>
+        <v>3.981842796862978E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18692,7 +18692,7 @@
         <v>1.224358968837564</v>
       </c>
       <c r="K243">
-        <v>55.04322755411221</v>
+        <v>0.05043227554112206</v>
       </c>
       <c r="L243">
         <v>0.001415231029581456</v>
@@ -18722,13 +18722,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U243">
-        <v>1.000019907232298</v>
+        <v>1.990723229750024E-05</v>
       </c>
       <c r="V243">
-        <v>1.000079633685049</v>
+        <v>7.96336850485968E-05</v>
       </c>
       <c r="W243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18763,7 +18763,7 @@
         <v>1.340593531630659</v>
       </c>
       <c r="K244">
-        <v>57.27579408871928</v>
+        <v>0.07275794088719278</v>
       </c>
       <c r="L244">
         <v>0.001785443275921122</v>
@@ -18793,13 +18793,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U244">
-        <v>1.000019906836007</v>
+        <v>1.990683600738841E-05</v>
       </c>
       <c r="V244">
-        <v>1.000059720508022</v>
+        <v>5.972050802238726E-05</v>
       </c>
       <c r="W244">
-        <v>1.000298507462687</v>
+        <v>0.0002985074626866702</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18834,7 +18834,7 @@
         <v>1.707650045713977</v>
       </c>
       <c r="K245">
-        <v>63.0676053730455</v>
+        <v>0.130676053730455</v>
       </c>
       <c r="L245">
         <v>0.002492387392659706</v>
@@ -18864,13 +18864,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U245">
-        <v>1.000009953219867</v>
+        <v>9.953219866742913E-06</v>
       </c>
       <c r="V245">
-        <v>1.000119433883393</v>
+        <v>0.0001194338833925279</v>
       </c>
       <c r="W245">
-        <v>1.000895255147717</v>
+        <v>0.0008952551477170445</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18905,7 +18905,7 @@
         <v>1.512812289426537</v>
       </c>
       <c r="K246">
-        <v>60.20395139709319</v>
+        <v>0.1020395139709319</v>
       </c>
       <c r="L246">
         <v>0.00324042376084629</v>
@@ -18935,13 +18935,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V246">
-        <v>1.000099516350537</v>
+        <v>9.951635053662145E-05</v>
       </c>
       <c r="W246">
-        <v>0.999701848539058</v>
+        <v>-0.000298151460942031</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18976,7 +18976,7 @@
         <v>1.632914400250807</v>
       </c>
       <c r="K247">
-        <v>62.01927415852404</v>
+        <v>0.1201927415852404</v>
       </c>
       <c r="L247">
         <v>0.00406258551707826</v>
@@ -19006,13 +19006,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U247">
-        <v>1.000029859362403</v>
+        <v>2.985936240285092E-05</v>
       </c>
       <c r="V247">
-        <v>1.000119407737621</v>
+        <v>0.0001194077376212022</v>
       </c>
       <c r="W247">
-        <v>1.000298240381748</v>
+        <v>0.0002982403817475276</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19047,7 +19047,7 @@
         <v>1.885760949354678</v>
       </c>
       <c r="K248">
-        <v>65.34709501063756</v>
+        <v>0.1534709501063756</v>
       </c>
       <c r="L248">
         <v>0.005079879649864297</v>
@@ -19077,13 +19077,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U248">
-        <v>1.000039811294464</v>
+        <v>3.981129446439802E-05</v>
       </c>
       <c r="V248">
-        <v>1.000179090221674</v>
+        <v>0.0001790902216740609</v>
       </c>
       <c r="W248">
-        <v>1.000596302921885</v>
+        <v>0.0005963029218845062</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19118,7 +19118,7 @@
         <v>1.664282949133231</v>
       </c>
       <c r="K249">
-        <v>62.46644898112908</v>
+        <v>0.1246644898112907</v>
       </c>
       <c r="L249">
         <v>0.006023238481414329</v>
@@ -19148,13 +19148,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U249">
-        <v>1.000039809709588</v>
+        <v>3.980970958816776E-05</v>
       </c>
       <c r="V249">
-        <v>1.000119372102739</v>
+        <v>0.0001193721027394901</v>
       </c>
       <c r="W249">
-        <v>0.9997020262216925</v>
+        <v>-0.0002979737783075365</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19189,7 +19189,7 @@
         <v>1.787911947366007</v>
       </c>
       <c r="K250">
-        <v>64.13086141602174</v>
+        <v>0.1413086141602174</v>
       </c>
       <c r="L250">
         <v>0.006948398030940694</v>
@@ -19219,13 +19219,13 @@
         <v>0.1031249999999773</v>
       </c>
       <c r="U250">
-        <v>1.000049760156048</v>
+        <v>4.976015604785111E-05</v>
       </c>
       <c r="V250">
-        <v>1.000159143806322</v>
+        <v>0.0001591438063219819</v>
       </c>
       <c r="W250">
-        <v>1.000298062593145</v>
+        <v>0.0002980625931445768</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19260,7 +19260,7 @@
         <v>1.58203285566384</v>
       </c>
       <c r="K251">
-        <v>61.27082589958368</v>
+        <v>0.1127082589958368</v>
       </c>
       <c r="L251">
         <v>0.007669459156461992</v>
@@ -19290,13 +19290,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U251">
-        <v>1.000059709216117</v>
+        <v>5.970921611742064E-05</v>
       </c>
       <c r="V251">
-        <v>1.00009944905225</v>
+        <v>9.944905225034439E-05</v>
       </c>
       <c r="W251">
-        <v>0.9997020262216925</v>
+        <v>-0.0002979737783075365</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19331,7 +19331,7 @@
         <v>1.58203285566384</v>
       </c>
       <c r="K252">
-        <v>61.27082589958368</v>
+        <v>0.1127082589958368</v>
       </c>
       <c r="L252">
         <v>0.008192932040920337</v>
@@ -19361,13 +19361,13 @@
         <v>0.1218750000000171</v>
       </c>
       <c r="U252">
-        <v>1.00008955847671</v>
+        <v>8.955847670977235E-05</v>
       </c>
       <c r="V252">
-        <v>1.00009943916312</v>
+        <v>9.943916312016299E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19402,7 +19402,7 @@
         <v>1.709623522289448</v>
       </c>
       <c r="K253">
-        <v>63.094504023383</v>
+        <v>0.13094504023383</v>
       </c>
       <c r="L253">
         <v>0.008642156232998296</v>
@@ -19432,13 +19432,13 @@
         <v>0.1156250000000227</v>
       </c>
       <c r="U253">
-        <v>1.000099500507453</v>
+        <v>9.950050745266559E-05</v>
       </c>
       <c r="V253">
-        <v>1.000119315131147</v>
+        <v>0.0001193151311471574</v>
       </c>
       <c r="W253">
-        <v>1.000298062593145</v>
+        <v>0.0002980625931445768</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19473,7 +19473,7 @@
         <v>1.709623522289448</v>
       </c>
       <c r="K254">
-        <v>63.094504023383</v>
+        <v>0.13094504023383</v>
       </c>
       <c r="L254">
         <v>0.008986231783572914</v>
@@ -19503,13 +19503,13 @@
         <v>0.1156250000000227</v>
       </c>
       <c r="U254">
-        <v>1.000089541547278</v>
+        <v>8.954154727791597E-05</v>
       </c>
       <c r="V254">
-        <v>1.000139184379536</v>
+        <v>0.0001391843795359726</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19544,7 +19544,7 @@
         <v>1.709623522289448</v>
       </c>
       <c r="K255">
-        <v>63.09450402338301</v>
+        <v>0.1309450402338301</v>
       </c>
       <c r="L255">
         <v>0.009211898874194489</v>
@@ -19574,13 +19574,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U255">
-        <v>1.000099481700341</v>
+        <v>9.948170034124182E-05</v>
       </c>
       <c r="V255">
-        <v>1.00013916500994</v>
+        <v>0.0001391650099404895</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19615,7 +19615,7 @@
         <v>1.488161990909346</v>
       </c>
       <c r="K256">
-        <v>59.80969070126615</v>
+        <v>0.09809690701266149</v>
       </c>
       <c r="L256">
         <v>0.009209192482658869</v>
@@ -19645,13 +19645,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U256">
-        <v>1.000089524624245</v>
+        <v>8.952462424516305E-05</v>
       </c>
       <c r="V256">
-        <v>1.000099389746954</v>
+        <v>9.938974695367087E-05</v>
       </c>
       <c r="W256">
-        <v>0.9997020262216925</v>
+        <v>-0.0002979737783075365</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19686,7 +19686,7 @@
         <v>1.624517977132885</v>
       </c>
       <c r="K257">
-        <v>61.89776527679057</v>
+        <v>0.1189776527679057</v>
       </c>
       <c r="L257">
         <v>0.009143428053355454</v>
@@ -19716,13 +19716,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U257">
-        <v>1.000079570320271</v>
+        <v>7.957032027072763E-05</v>
       </c>
       <c r="V257">
-        <v>1.000119255843536</v>
+        <v>0.0001192558435361146</v>
       </c>
       <c r="W257">
-        <v>1.000298062593145</v>
+        <v>0.0002980625931445768</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19757,7 +19757,7 @@
         <v>1.624517977132885</v>
       </c>
       <c r="K258">
-        <v>61.89776527679057</v>
+        <v>0.1189776527679056</v>
       </c>
       <c r="L258">
         <v>0.009010327628029056</v>
@@ -19787,13 +19787,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U258">
-        <v>1.000099454986673</v>
+        <v>9.945498667285335E-05</v>
       </c>
       <c r="V258">
-        <v>1.000119241623276</v>
+        <v>0.0001192416232762561</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19828,7 +19828,7 @@
         <v>1.247543003931105</v>
       </c>
       <c r="K259">
-        <v>55.50696924370602</v>
+        <v>0.05506969243706017</v>
       </c>
       <c r="L259">
         <v>0.008594806745826003</v>
@@ -19858,13 +19858,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U259">
-        <v>1.000059667057817</v>
+        <v>5.966705781745851E-05</v>
       </c>
       <c r="V259">
-        <v>1.000059613703203</v>
+        <v>5.961370320295423E-05</v>
       </c>
       <c r="W259">
-        <v>0.9994040524433848</v>
+        <v>-0.0005959475566151839</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19899,7 +19899,7 @@
         <v>1.247543003931105</v>
       </c>
       <c r="K260">
-        <v>55.50696924370602</v>
+        <v>0.05506969243706017</v>
       </c>
       <c r="L260">
         <v>0.008003420320235651</v>
@@ -19929,13 +19929,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U260">
-        <v>1.000059663497872</v>
+        <v>5.966349787200897E-05</v>
       </c>
       <c r="V260">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19970,7 +19970,7 @@
         <v>1.376104462533371</v>
       </c>
       <c r="K261">
-        <v>57.91430823989054</v>
+        <v>0.07914308239890544</v>
       </c>
       <c r="L261">
         <v>0.007422692376356838</v>
@@ -20000,13 +20000,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U261">
-        <v>1.00006960326141</v>
+        <v>6.960326141003392E-05</v>
       </c>
       <c r="V261">
-        <v>1.000039740099748</v>
+        <v>3.974009974760939E-05</v>
       </c>
       <c r="W261">
-        <v>1.000298151460942</v>
+        <v>0.0002981514609421421</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20041,7 +20041,7 @@
         <v>1.082987673230692</v>
       </c>
       <c r="K262">
-        <v>51.99203466965263</v>
+        <v>0.01992034669652631</v>
       </c>
       <c r="L262">
         <v>0.006641177372103331</v>
@@ -20071,13 +20071,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U262">
-        <v>1.000049713155095</v>
+        <v>4.971315509494367E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999801307397322</v>
+        <v>-1.986926026775748E-05</v>
       </c>
       <c r="W262">
-        <v>0.999403874813711</v>
+        <v>-0.0005961251862890427</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20112,7 +20112,7 @@
         <v>1.082987673230692</v>
       </c>
       <c r="K263">
-        <v>51.99203466965263</v>
+        <v>0.01992034669652631</v>
       </c>
       <c r="L263">
         <v>0.005763690981009885</v>
@@ -20142,13 +20142,13 @@
         <v>-0.02812499999996021</v>
       </c>
       <c r="U263">
-        <v>1.000059652820584</v>
+        <v>5.965282058428834E-05</v>
       </c>
       <c r="V263">
-        <v>0.9999403910348118</v>
+        <v>-5.960896518819592E-05</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20183,7 +20183,7 @@
         <v>1.082987673230692</v>
       </c>
       <c r="K264">
-        <v>51.99203466965263</v>
+        <v>0.01992034669652631</v>
       </c>
       <c r="L264">
         <v>0.004863026043908292</v>
@@ -20213,13 +20213,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U264">
-        <v>1.000039766174892</v>
+        <v>3.976617489165335E-05</v>
       </c>
       <c r="V264">
-        <v>0.9999602583209141</v>
+        <v>-3.974167908593618E-05</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20254,7 +20254,7 @@
         <v>1.082987673230693</v>
       </c>
       <c r="K265">
-        <v>51.99203466965265</v>
+        <v>0.01992034669652643</v>
       </c>
       <c r="L265">
         <v>0.003988024879159394</v>
@@ -20284,13 +20284,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U265">
-        <v>1.000049705742007</v>
+        <v>4.970574200724442E-05</v>
       </c>
       <c r="V265">
-        <v>0.9999403851121752</v>
+        <v>-5.961488782479929E-05</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20325,7 +20325,7 @@
         <v>1.082987673230692</v>
       </c>
       <c r="K266">
-        <v>51.99203466965265</v>
+        <v>0.01992034669652643</v>
       </c>
       <c r="L266">
         <v>0.003169818205988161</v>
@@ -20355,13 +20355,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U266">
-        <v>1.000029821962882</v>
+        <v>2.982196288159322E-05</v>
       </c>
       <c r="V266">
-        <v>0.9999602543720191</v>
+        <v>-3.974562798092496E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20396,7 +20396,7 @@
         <v>1.22062659746549</v>
       </c>
       <c r="K267">
-        <v>54.96766538141311</v>
+        <v>0.04967665381413111</v>
       </c>
       <c r="L267">
         <v>0.002535205054743573</v>
@@ -20426,13 +20426,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U267">
-        <v>1.000039761431412</v>
+        <v>3.976143141160016E-05</v>
       </c>
       <c r="V267">
-        <v>0.9999801263961207</v>
+        <v>-1.987360387933901E-05</v>
       </c>
       <c r="W267">
-        <v>1.000298240381748</v>
+        <v>0.0002982403817475276</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20467,7 +20467,7 @@
         <v>1.655275831891329</v>
       </c>
       <c r="K268">
-        <v>62.33912921627774</v>
+        <v>0.1233912921627774</v>
       </c>
       <c r="L268">
         <v>0.002368765261088037</v>
@@ -20497,13 +20497,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U268">
-        <v>1.00006957973838</v>
+        <v>6.957973838028764E-05</v>
       </c>
       <c r="V268">
-        <v>1.000019873998847</v>
+        <v>1.987399884728624E-05</v>
       </c>
       <c r="W268">
-        <v>1.000894454382826</v>
+        <v>0.0008944543828264262</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20538,7 +20538,7 @@
         <v>1.655275831891329</v>
       </c>
       <c r="K269">
-        <v>62.33912921627773</v>
+        <v>0.1233912921627773</v>
       </c>
       <c r="L269">
         <v>0.002487907316162852</v>
@@ -20568,13 +20568,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U269">
-        <v>1.000079514168431</v>
+        <v>7.95141684308831E-05</v>
       </c>
       <c r="V269">
-        <v>1.000019873603879</v>
+        <v>1.987360387922799E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20609,7 +20609,7 @@
         <v>1.252980662420351</v>
       </c>
       <c r="K270">
-        <v>55.6143549440983</v>
+        <v>0.05614354944098299</v>
       </c>
       <c r="L270">
         <v>0.002546232295548125</v>
@@ -20639,13 +20639,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U270">
-        <v>1.000059630884823</v>
+        <v>5.963088482308088E-05</v>
       </c>
       <c r="V270">
-        <v>0.9999801267910728</v>
+        <v>-1.987320892715694E-05</v>
       </c>
       <c r="W270">
-        <v>0.9994042299672327</v>
+        <v>-0.0005957700327673399</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20680,7 +20680,7 @@
         <v>1.252980662420352</v>
       </c>
       <c r="K271">
-        <v>55.6143549440983</v>
+        <v>0.05614354944098299</v>
       </c>
       <c r="L271">
         <v>0.002554722578010512</v>
@@ -20710,13 +20710,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U271">
-        <v>1.000049689440994</v>
+        <v>4.968944099381645E-05</v>
       </c>
       <c r="V271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20751,7 +20751,7 @@
         <v>1.252980662420351</v>
       </c>
       <c r="K272">
-        <v>55.6143549440983</v>
+        <v>0.05614354944098299</v>
       </c>
       <c r="L272">
         <v>0.002523177004196437</v>
@@ -20781,13 +20781,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U272">
-        <v>1.000049686972076</v>
+        <v>4.968697207585748E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999801263961209</v>
+        <v>-1.987360387911696E-05</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20822,7 +20822,7 @@
         <v>1.536448393695931</v>
       </c>
       <c r="K273">
-        <v>60.57479416946182</v>
+        <v>0.1057479416946182</v>
       </c>
       <c r="L273">
         <v>0.002677337063979456</v>
@@ -20852,13 +20852,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U273">
-        <v>1.000069558304765</v>
+        <v>6.955830476496061E-05</v>
       </c>
       <c r="V273">
-        <v>1.000019873998847</v>
+        <v>1.987399884728624E-05</v>
       </c>
       <c r="W273">
-        <v>1.000596125186289</v>
+        <v>0.0005961251862891537</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20893,7 +20893,7 @@
         <v>1.536448393695931</v>
       </c>
       <c r="K274">
-        <v>60.57479416946182</v>
+        <v>0.1057479416946182</v>
       </c>
       <c r="L274">
         <v>0.002924409659652719</v>
@@ -20923,13 +20923,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U274">
-        <v>1.000059617257208</v>
+        <v>5.961725720848854E-05</v>
       </c>
       <c r="V274">
-        <v>1.000059620811638</v>
+        <v>5.962081163812805E-05</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20964,7 +20964,7 @@
         <v>1.693494228197682</v>
       </c>
       <c r="K275">
-        <v>62.87350499840731</v>
+        <v>0.128735049984073</v>
       </c>
       <c r="L275">
         <v>0.00330992210930801</v>
@@ -20994,13 +20994,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U275">
-        <v>1.000039742468803</v>
+        <v>3.97424688025616E-05</v>
       </c>
       <c r="V275">
-        <v>1.000079489676278</v>
+        <v>7.948967627813275E-05</v>
       </c>
       <c r="W275">
-        <v>1.000297885016384</v>
+        <v>0.0002978850163837254</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21035,7 +21035,7 @@
         <v>1.693494228197682</v>
       </c>
       <c r="K276">
-        <v>62.87350499840731</v>
+        <v>0.128735049984073</v>
       </c>
       <c r="L276">
         <v>0.003742655367806005</v>
@@ -21065,13 +21065,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U276">
-        <v>1.000049676111751</v>
+        <v>4.967611175121789E-05</v>
       </c>
       <c r="V276">
-        <v>1.000059612518629</v>
+        <v>5.961251862873773E-05</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21106,7 +21106,7 @@
         <v>1.256278979947643</v>
       </c>
       <c r="K277">
-        <v>55.67923962917011</v>
+        <v>0.05679239629170107</v>
       </c>
       <c r="L277">
         <v>0.003945650845811019</v>
@@ -21136,13 +21136,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U277">
-        <v>1.000019869457663</v>
+        <v>1.986945766319081E-05</v>
       </c>
       <c r="V277">
-        <v>1.000059608965189</v>
+        <v>5.960896518875103E-05</v>
       </c>
       <c r="W277">
-        <v>0.9994044073853484</v>
+        <v>-0.0005955926146515855</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21177,7 +21177,7 @@
         <v>1.256278979947643</v>
       </c>
       <c r="K278">
-        <v>55.67923962917011</v>
+        <v>0.05679239629170107</v>
       </c>
       <c r="L278">
         <v>0.003982164550993776</v>
@@ -21207,13 +21207,13 @@
         <v>0.05312499999996589</v>
       </c>
       <c r="U278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V278">
-        <v>1.000059605412172</v>
+        <v>5.960541217153725E-05</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21248,7 +21248,7 @@
         <v>1.256278979947643</v>
       </c>
       <c r="K279">
-        <v>55.67923962917011</v>
+        <v>0.05679239629170107</v>
       </c>
       <c r="L279">
         <v>0.003900996825973626</v>
@@ -21278,13 +21278,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U279">
-        <v>1.000009934531438</v>
+        <v>9.934531437938432E-06</v>
       </c>
       <c r="V279">
-        <v>1.000059601859578</v>
+        <v>5.960185957776254E-05</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21319,7 +21319,7 @@
         <v>1.406839382614508</v>
       </c>
       <c r="K280">
-        <v>58.45173519997344</v>
+        <v>0.08451735199973442</v>
       </c>
       <c r="L280">
         <v>0.003848049976486384</v>
@@ -21349,13 +21349,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U280">
-        <v>1.000009934432744</v>
+        <v>9.934432743774479E-06</v>
       </c>
       <c r="V280">
-        <v>1.000079464409878</v>
+        <v>7.946440987760539E-05</v>
       </c>
       <c r="W280">
-        <v>1.000297973778307</v>
+        <v>0.0002979737783073144</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21390,7 +21390,7 @@
         <v>1.565324017000771</v>
       </c>
       <c r="K281">
-        <v>61.01856945271411</v>
+        <v>0.1101856945271411</v>
       </c>
       <c r="L281">
         <v>0.003910090898400166</v>
@@ -21420,13 +21420,13 @@
         <v>0.04062500000003411</v>
       </c>
       <c r="U281">
-        <v>1.000029803002156</v>
+        <v>2.980300215593701E-05</v>
       </c>
       <c r="V281">
-        <v>1.000099322619733</v>
+        <v>9.932261973322198E-05</v>
       </c>
       <c r="W281">
-        <v>1.000297885016384</v>
+        <v>0.0002978850163837254</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21461,7 +21461,7 @@
         <v>1.732149947933584</v>
       </c>
       <c r="K282">
-        <v>63.39878780239228</v>
+        <v>0.1339878780239229</v>
       </c>
       <c r="L282">
         <v>0.004132114886656959</v>
@@ -21491,13 +21491,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U282">
-        <v>1.000039736151951</v>
+        <v>3.973615195107527E-05</v>
       </c>
       <c r="V282">
-        <v>1.00009931275573</v>
+        <v>9.931275573049625E-05</v>
       </c>
       <c r="W282">
-        <v>1.000297796307326</v>
+        <v>0.0002977963073256262</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21532,7 +21532,7 @@
         <v>1.473409960281356</v>
       </c>
       <c r="K283">
-        <v>59.56998572585</v>
+        <v>0.09569985725850005</v>
       </c>
       <c r="L283">
         <v>0.004313301356638982</v>
@@ -21562,13 +21562,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U283">
-        <v>1.000019867286526</v>
+        <v>1.986728652592085E-05</v>
       </c>
       <c r="V283">
-        <v>1.000019860578737</v>
+        <v>1.986057873737401E-05</v>
       </c>
       <c r="W283">
-        <v>0.9997022923489135</v>
+        <v>-0.0002977076510864984</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21603,7 +21603,7 @@
         <v>1.787883752881335</v>
       </c>
       <c r="K284">
-        <v>64.13049866349414</v>
+        <v>0.1413049866349414</v>
       </c>
       <c r="L284">
         <v>0.004659530247024855</v>
@@ -21633,13 +21633,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U284">
-        <v>1.00003973378365</v>
+        <v>3.97337836495204E-05</v>
       </c>
       <c r="V284">
-        <v>1.000059580552907</v>
+        <v>5.958055290733455E-05</v>
       </c>
       <c r="W284">
-        <v>1.000595592614651</v>
+        <v>0.0005955926146514745</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21674,7 +21674,7 @@
         <v>1.787883752881335</v>
       </c>
       <c r="K285">
-        <v>64.13049866349414</v>
+        <v>0.1413049866349414</v>
       </c>
       <c r="L285">
         <v>0.005066668539801669</v>
@@ -21704,13 +21704,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U285">
-        <v>1.000039732204939</v>
+        <v>3.973220493858065E-05</v>
       </c>
       <c r="V285">
-        <v>1.000099295005461</v>
+        <v>9.929500546124181E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21745,7 +21745,7 @@
         <v>2.659002291939499</v>
       </c>
       <c r="K286">
-        <v>72.67014556938312</v>
+        <v>0.2267014556938313</v>
       </c>
       <c r="L286">
         <v>0.00600884133940251</v>
@@ -21775,13 +21775,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U286">
-        <v>1.000099326565883</v>
+        <v>9.932656588329536E-05</v>
       </c>
       <c r="V286">
-        <v>1.000198570293884</v>
+        <v>0.0001985702938840372</v>
       </c>
       <c r="W286">
-        <v>1.001488095238095</v>
+        <v>0.001488095238095344</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21816,7 +21816,7 @@
         <v>2.842395668583364</v>
       </c>
       <c r="K287">
-        <v>73.97456987117921</v>
+        <v>0.2397456987117921</v>
       </c>
       <c r="L287">
         <v>0.007301586158858718</v>
@@ -21846,13 +21846,13 @@
         <v>0.09374999999997158</v>
       </c>
       <c r="U287">
-        <v>1.000099316701096</v>
+        <v>9.931670109630808E-05</v>
       </c>
       <c r="V287">
-        <v>1.000218383958706</v>
+        <v>0.0002183839587055481</v>
       </c>
       <c r="W287">
-        <v>1.000297176820208</v>
+        <v>0.0002971768202080227</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21887,7 +21887,7 @@
         <v>2.382470147434677</v>
       </c>
       <c r="K288">
-        <v>70.43580707553571</v>
+        <v>0.2043580707553571</v>
       </c>
       <c r="L288">
         <v>0.008589051675406934</v>
@@ -21917,13 +21917,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U288">
-        <v>1.000089376154442</v>
+        <v>8.937615444204461E-05</v>
       </c>
       <c r="V288">
-        <v>1.000158790020047</v>
+        <v>0.0001587900200470393</v>
       </c>
       <c r="W288">
-        <v>0.9997029114676173</v>
+        <v>-0.0002970885323827499</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21958,7 +21958,7 @@
         <v>1.77709975786592</v>
       </c>
       <c r="K289">
-        <v>63.99121071659102</v>
+        <v>0.1399121071659102</v>
       </c>
       <c r="L289">
         <v>0.009542842516351844</v>
@@ -21988,13 +21988,13 @@
         <v>0.125</v>
       </c>
       <c r="U289">
-        <v>1.000089368167059</v>
+        <v>8.936816705884532E-05</v>
       </c>
       <c r="V289">
-        <v>1.000119073607335</v>
+        <v>0.0001190736073350962</v>
       </c>
       <c r="W289">
-        <v>0.999405646359584</v>
+        <v>-0.0005943536404160454</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22029,7 +22029,7 @@
         <v>1.910833225566596</v>
       </c>
       <c r="K290">
-        <v>65.64557559613024</v>
+        <v>0.1564557559613025</v>
       </c>
       <c r="L290">
         <v>0.01030734598429238</v>
@@ -22059,13 +22059,13 @@
         <v>0.1343750000000341</v>
       </c>
       <c r="U290">
-        <v>1.000099289090115</v>
+        <v>9.928909011480691E-05</v>
       </c>
       <c r="V290">
-        <v>1.000119059430499</v>
+        <v>0.0001190594304989467</v>
       </c>
       <c r="W290">
-        <v>1.000297353553375</v>
+        <v>0.0002973535533747906</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22100,7 +22100,7 @@
         <v>2.473921510622317</v>
       </c>
       <c r="K291">
-        <v>71.21408768326316</v>
+        <v>0.2121408768326316</v>
       </c>
       <c r="L291">
         <v>0.01130469408585702</v>
@@ -22130,13 +22130,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U291">
-        <v>1.000129063002601</v>
+        <v>0.0001290630026011819</v>
       </c>
       <c r="V291">
-        <v>1.000198408761731</v>
+        <v>0.0001984087617312724</v>
       </c>
       <c r="W291">
-        <v>1.001189060642093</v>
+        <v>0.001189060642092787</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22171,7 +22171,7 @@
         <v>2.154643941669535</v>
       </c>
       <c r="K292">
-        <v>68.30070148991936</v>
+        <v>0.1830070148991936</v>
       </c>
       <c r="L292">
         <v>0.01222966972340634</v>
@@ -22201,13 +22201,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U292">
-        <v>1.000138972989607</v>
+        <v>0.0001389729896068559</v>
       </c>
       <c r="V292">
-        <v>1.000218206343853</v>
+        <v>0.0002182063438533888</v>
       </c>
       <c r="W292">
-        <v>0.9997030878859857</v>
+        <v>-0.0002969121140142805</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22242,7 +22242,7 @@
         <v>2.154643941669535</v>
       </c>
       <c r="K293">
-        <v>68.30070148991936</v>
+        <v>0.1830070148991936</v>
       </c>
       <c r="L293">
         <v>0.01300713011136972</v>
@@ -22272,13 +22272,13 @@
         <v>0.1906250000000114</v>
       </c>
       <c r="U293">
-        <v>1.000138953678799</v>
+        <v>0.0001389536787985701</v>
       </c>
       <c r="V293">
-        <v>1.000218158740232</v>
+        <v>0.0002181587402323437</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22313,7 +22313,7 @@
         <v>1.675462501351614</v>
       </c>
       <c r="K294">
-        <v>62.62328477805946</v>
+        <v>0.1262328477805945</v>
       </c>
       <c r="L294">
         <v>0.01338128904044902</v>
@@ -22343,13 +22343,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U294">
-        <v>1.000119086605734</v>
+        <v>0.00011908660573412</v>
       </c>
       <c r="V294">
-        <v>1.000178454583309</v>
+        <v>0.0001784545833087847</v>
       </c>
       <c r="W294">
-        <v>0.9994059994059994</v>
+        <v>-0.0005940005940006099</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22384,7 +22384,7 @@
         <v>1.792512355011758</v>
       </c>
       <c r="K295">
-        <v>64.189952527684</v>
+        <v>0.14189952527684</v>
       </c>
       <c r="L295">
         <v>0.01354693002392016</v>
@@ -22414,13 +22414,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U295">
-        <v>1.000128995127953</v>
+        <v>0.0001289951279532797</v>
       </c>
       <c r="V295">
-        <v>1.000178422742952</v>
+        <v>0.0001784227429522112</v>
       </c>
       <c r="W295">
-        <v>1.000297176820208</v>
+        <v>0.0002971768202080227</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22455,7 +22455,7 @@
         <v>1.308755571479508</v>
       </c>
       <c r="K296">
-        <v>56.6866232028549</v>
+        <v>0.06686623202854891</v>
       </c>
       <c r="L296">
         <v>0.01320109423758174</v>
@@ -22485,13 +22485,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U296">
-        <v>1.000099214223351</v>
+        <v>9.921422335090746E-05</v>
       </c>
       <c r="V296">
-        <v>1.000099106063309</v>
+        <v>9.910606330909566E-05</v>
       </c>
       <c r="W296">
-        <v>0.999108734402852</v>
+        <v>-0.0008912655971480277</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22526,7 +22526,7 @@
         <v>1.498142519711603</v>
       </c>
       <c r="K297">
-        <v>59.97025821747573</v>
+        <v>0.09970258217475736</v>
       </c>
       <c r="L297">
         <v>0.01273623901249604</v>
@@ -22556,13 +22556,13 @@
         <v>0.09062499999998863</v>
       </c>
       <c r="U297">
-        <v>1.000109124818952</v>
+        <v>0.0001091248189519778</v>
       </c>
       <c r="V297">
-        <v>1.000118915490724</v>
+        <v>0.0001189154907244028</v>
       </c>
       <c r="W297">
-        <v>1.00059470710675</v>
+        <v>0.0005947071067498033</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22597,7 +22597,7 @@
         <v>1.597819860886418</v>
       </c>
       <c r="K298">
-        <v>61.50618389456828</v>
+        <v>0.1150618389456828</v>
       </c>
       <c r="L298">
         <v>0.01229089255765673</v>
@@ -22627,13 +22627,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U298">
-        <v>1.000089274200748</v>
+        <v>8.927420074811288E-05</v>
       </c>
       <c r="V298">
-        <v>1.000158535135349</v>
+        <v>0.0001585351353494691</v>
       </c>
       <c r="W298">
-        <v>1.000297176820208</v>
+        <v>0.0002971768202080227</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22668,7 +22668,7 @@
         <v>1.320679239535518</v>
       </c>
       <c r="K299">
-        <v>56.90916767109318</v>
+        <v>0.06909167671093175</v>
       </c>
       <c r="L299">
         <v>0.01162422521950053</v>
@@ -22698,13 +22698,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U299">
-        <v>1.000069429291226</v>
+        <v>6.94292912259975E-05</v>
       </c>
       <c r="V299">
-        <v>1.000079255002972</v>
+        <v>7.925500297201182E-05</v>
       </c>
       <c r="W299">
-        <v>0.9994058229352346</v>
+        <v>-0.0005941770647653888</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22739,7 +22739,7 @@
         <v>1.411968306902979</v>
       </c>
       <c r="K300">
-        <v>58.54008540916433</v>
+        <v>0.08540085409164333</v>
       </c>
       <c r="L300">
         <v>0.01093203239942474</v>
@@ -22769,13 +22769,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U300">
-        <v>1.000099177815906</v>
+        <v>9.917781590629282E-05</v>
       </c>
       <c r="V300">
-        <v>1.000099060902643</v>
+        <v>9.906090264300005E-05</v>
       </c>
       <c r="W300">
-        <v>1.000297265160523</v>
+        <v>0.0002972651605233079</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22810,7 +22810,7 @@
         <v>1.019931944740423</v>
       </c>
       <c r="K301">
-        <v>50.49338159120467</v>
+        <v>0.004933815912046668</v>
       </c>
       <c r="L301">
         <v>0.009795342365210387</v>
@@ -22840,13 +22840,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U301">
-        <v>1.000059500788385</v>
+        <v>5.950078838545814E-05</v>
       </c>
       <c r="V301">
-        <v>0.9999207591275581</v>
+        <v>-7.924087244193245E-05</v>
       </c>
       <c r="W301">
-        <v>0.998811292719168</v>
+        <v>-0.00118870728083198</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22881,7 +22881,7 @@
         <v>1.092998360765898</v>
       </c>
       <c r="K302">
-        <v>52.22165393220535</v>
+        <v>0.02221653932205347</v>
       </c>
       <c r="L302">
         <v>0.008534606890635215</v>
@@ -22911,13 +22911,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U302">
-        <v>1.000069413456294</v>
+        <v>6.941345629440931E-05</v>
       </c>
       <c r="V302">
-        <v>0.9999207528479446</v>
+        <v>-7.924715205542832E-05</v>
       </c>
       <c r="W302">
-        <v>1.000297530496876</v>
+        <v>0.0002975304968757531</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22952,7 +22952,7 @@
         <v>1.014937472741503</v>
       </c>
       <c r="K303">
-        <v>50.37066839402167</v>
+        <v>0.003706683940216671</v>
       </c>
       <c r="L303">
         <v>0.007139737180171233</v>
@@ -22982,13 +22982,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U303">
-        <v>1.000039662079086</v>
+        <v>3.96620790861224E-05</v>
       </c>
       <c r="V303">
-        <v>0.9999207465673356</v>
+        <v>-7.925343266435014E-05</v>
       </c>
       <c r="W303">
-        <v>0.9997025580011899</v>
+        <v>-0.0002974419988100996</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23023,7 +23023,7 @@
         <v>1.466005061301822</v>
       </c>
       <c r="K304">
-        <v>59.44858282358543</v>
+        <v>0.09448582823585427</v>
       </c>
       <c r="L304">
         <v>0.006376402718508902</v>
@@ -23053,13 +23053,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U304">
-        <v>1.00009915126517</v>
+        <v>9.915126517023864E-05</v>
       </c>
       <c r="V304">
-        <v>1.000079259714269</v>
+        <v>7.925971426891998E-05</v>
       </c>
       <c r="W304">
-        <v>1.001785182981255</v>
+        <v>0.001785182981255407</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23094,7 +23094,7 @@
         <v>1.466005061301822</v>
       </c>
       <c r="K305">
-        <v>59.44858282358541</v>
+        <v>0.09448582823585416</v>
       </c>
       <c r="L305">
         <v>0.006020992968816203</v>
@@ -23124,13 +23124,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U305">
-        <v>1.000089227291654</v>
+        <v>8.922729165417032E-05</v>
       </c>
       <c r="V305">
-        <v>1.000059440074498</v>
+        <v>5.944007449842914E-05</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23165,7 +23165,7 @@
         <v>1.466005061301822</v>
       </c>
       <c r="K306">
-        <v>59.44858282358541</v>
+        <v>0.09448582823585416</v>
       </c>
       <c r="L306">
         <v>0.005913370761515237</v>
@@ -23195,13 +23195,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U306">
-        <v>1.000089219330855</v>
+        <v>8.92193308550393E-05</v>
       </c>
       <c r="V306">
-        <v>0.9999801878194713</v>
+        <v>-1.981218052871103E-05</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23236,7 +23236,7 @@
         <v>1.553688900259968</v>
       </c>
       <c r="K307">
-        <v>60.84096226841888</v>
+        <v>0.1084096226841887</v>
       </c>
       <c r="L307">
         <v>0.006049425810624417</v>
@@ -23266,13 +23266,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U307">
-        <v>1.000118948495302</v>
+        <v>0.0001189484953016962</v>
       </c>
       <c r="V307">
-        <v>1.000019812573059</v>
+        <v>1.98125730590526E-05</v>
       </c>
       <c r="W307">
-        <v>1.000297000297</v>
+        <v>0.000297000297000416</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23307,7 +23307,7 @@
         <v>1.422402855120983</v>
       </c>
       <c r="K308">
-        <v>58.7186748114175</v>
+        <v>0.08718674811417504</v>
       </c>
       <c r="L308">
         <v>0.006194062996285653</v>
@@ -23337,13 +23337,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U308">
-        <v>1.000109023152553</v>
+        <v>0.0001090231525531227</v>
       </c>
       <c r="V308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W308">
-        <v>0.9997030878859857</v>
+        <v>-0.0002969121140142805</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23378,7 +23378,7 @@
         <v>1.422402855120983</v>
       </c>
       <c r="K309">
-        <v>58.7186748114175</v>
+        <v>0.08718674811417504</v>
       </c>
       <c r="L309">
         <v>0.006312094588035963</v>
@@ -23408,13 +23408,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U309">
-        <v>1.000109011267801</v>
+        <v>0.0001090112678010513</v>
       </c>
       <c r="V309">
-        <v>1.000039624361057</v>
+        <v>3.962436105675593E-05</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23449,7 +23449,7 @@
         <v>1.609659521585778</v>
       </c>
       <c r="K310">
-        <v>61.68082496093808</v>
+        <v>0.1168082496093809</v>
       </c>
       <c r="L310">
         <v>0.006600008573626853</v>
@@ -23479,13 +23479,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U310">
-        <v>1.000118908420698</v>
+        <v>0.0001189084206980606</v>
       </c>
       <c r="V310">
-        <v>1.000059434186544</v>
+        <v>5.943418654430488E-05</v>
       </c>
       <c r="W310">
-        <v>1.000594000594001</v>
+        <v>0.0005940005940006099</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23520,7 +23520,7 @@
         <v>1.806771802075092</v>
       </c>
       <c r="K311">
-        <v>64.37188091811797</v>
+        <v>0.1437188091811796</v>
       </c>
       <c r="L311">
         <v>0.007164909827315981</v>
@@ -23550,13 +23550,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U311">
-        <v>1.000128802140097</v>
+        <v>0.0001288021400969175</v>
       </c>
       <c r="V311">
-        <v>1.000158481744884</v>
+        <v>0.000158481744884087</v>
       </c>
       <c r="W311">
-        <v>1.000593647966756</v>
+        <v>0.0005936479667558725</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23591,7 +23591,7 @@
         <v>2.118001718637049</v>
       </c>
       <c r="K312">
-        <v>67.92817675427315</v>
+        <v>0.1792817675427315</v>
       </c>
       <c r="L312">
         <v>0.008160166967825592</v>
@@ -23621,13 +23621,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U312">
-        <v>1.000148598714126</v>
+        <v>0.0001485987141258693</v>
       </c>
       <c r="V312">
-        <v>1.000178263711451</v>
+        <v>0.000178263711450688</v>
       </c>
       <c r="W312">
-        <v>1.000889943636903</v>
+        <v>0.0008899436369027569</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23662,7 +23662,7 @@
         <v>1.738336852894587</v>
       </c>
       <c r="K313">
-        <v>63.48148333383676</v>
+        <v>0.1348148333383675</v>
       </c>
       <c r="L313">
         <v>0.009106314933260952</v>
@@ -23692,13 +23692,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U313">
-        <v>1.000138671526774</v>
+        <v>0.0001386715267737149</v>
       </c>
       <c r="V313">
-        <v>1.000118821292776</v>
+        <v>0.0001188212927756283</v>
       </c>
       <c r="W313">
-        <v>0.999407231772377</v>
+        <v>-0.0005927682276229973</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23733,7 +23733,7 @@
         <v>1.738336852894587</v>
       </c>
       <c r="K314">
-        <v>63.48148333383676</v>
+        <v>0.1348148333383675</v>
       </c>
       <c r="L314">
         <v>0.009929121394843081</v>
@@ -23763,13 +23763,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U314">
-        <v>1.000118844828269</v>
+        <v>0.0001188448282691823</v>
       </c>
       <c r="V314">
-        <v>1.000158409567938</v>
+        <v>0.0001584095679378894</v>
       </c>
       <c r="W314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23804,7 +23804,7 @@
         <v>1.738336852894587</v>
       </c>
       <c r="K315">
-        <v>63.48148333383675</v>
+        <v>0.1348148333383675</v>
       </c>
       <c r="L315">
         <v>0.01058849342365356</v>
@@ -23834,13 +23834,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U315">
-        <v>1.000118830705854</v>
+        <v>0.0001188307058543892</v>
       </c>
       <c r="V315">
-        <v>1.000138586418531</v>
+        <v>0.0001385864185308172</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23875,7 +23875,7 @@
         <v>1.437740451414393</v>
       </c>
       <c r="K316">
-        <v>58.97840562067248</v>
+        <v>0.0897840562067248</v>
       </c>
       <c r="L316">
         <v>0.01085175198890313</v>
@@ -23905,13 +23905,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U316">
-        <v>1.000049506911165</v>
+        <v>4.950691116478723E-05</v>
       </c>
       <c r="V316">
-        <v>1.000178157847853</v>
+        <v>0.0001781578478532442</v>
       </c>
       <c r="W316">
-        <v>0.9994068801897984</v>
+        <v>-0.0005931198102016033</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23946,7 +23946,7 @@
         <v>1.710774930481965</v>
       </c>
       <c r="K317">
-        <v>63.11017972184787</v>
+        <v>0.1311017972184787</v>
       </c>
       <c r="L317">
         <v>0.01114334260378667</v>
@@ -23976,13 +23976,13 @@
         <v>0.1468750000000227</v>
       </c>
       <c r="U317">
-        <v>1.000069306244493</v>
+        <v>6.930624449252853E-05</v>
       </c>
       <c r="V317">
-        <v>1.000217709694019</v>
+        <v>0.0002177096940187973</v>
       </c>
       <c r="W317">
-        <v>1.000890207715134</v>
+        <v>0.0008902077151335952</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24017,7 +24017,7 @@
         <v>1.710774930481964</v>
       </c>
       <c r="K318">
-        <v>63.11017972184786</v>
+        <v>0.1311017972184786</v>
       </c>
       <c r="L318">
         <v>0.0113928243045119</v>
@@ -24047,13 +24047,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U318">
-        <v>1.000079201647394</v>
+        <v>7.920164739427804E-05</v>
       </c>
       <c r="V318">
-        <v>1.000237449789264</v>
+        <v>0.0002374497892636551</v>
       </c>
       <c r="W318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24088,7 +24088,7 @@
         <v>1.81161869006367</v>
       </c>
       <c r="K319">
-        <v>64.43329945365548</v>
+        <v>0.1443329945365548</v>
       </c>
       <c r="L319">
         <v>0.01166749181106621</v>
@@ -24118,13 +24118,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U319">
-        <v>1.000108893640612</v>
+        <v>0.0001088936406115071</v>
       </c>
       <c r="V319">
-        <v>1.000138479495143</v>
+        <v>0.0001384794951431179</v>
       </c>
       <c r="W319">
-        <v>1.000296471983398</v>
+        <v>0.0002964719833975504</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24159,7 +24159,7 @@
         <v>1.91777001593921</v>
       </c>
       <c r="K320">
-        <v>65.72725079299622</v>
+        <v>0.1572725079299622</v>
       </c>
       <c r="L320">
         <v>0.01200547052203617</v>
@@ -24189,13 +24189,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U320">
-        <v>1.000108881784077</v>
+        <v>0.0001088817840773082</v>
       </c>
       <c r="V320">
-        <v>1.000158240367118</v>
+        <v>0.0001582403671176458</v>
       </c>
       <c r="W320">
-        <v>1.000296384113811</v>
+        <v>0.0002963841138114987</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24230,7 +24230,7 @@
         <v>1.91777001593921</v>
       </c>
       <c r="K321">
-        <v>65.72725079299622</v>
+        <v>0.1572725079299622</v>
       </c>
       <c r="L321">
         <v>0.01231640547682408</v>
@@ -24260,13 +24260,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U321">
-        <v>1.000069280864625</v>
+        <v>6.928086462520966E-05</v>
       </c>
       <c r="V321">
-        <v>1.000158215331066</v>
+        <v>0.0001582153310655254</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24301,7 +24301,7 @@
         <v>2.035389213585238</v>
       </c>
       <c r="K322">
-        <v>67.05529572535926</v>
+        <v>0.1705529572535925</v>
       </c>
       <c r="L322">
         <v>0.0126543081649551</v>
@@ -24331,13 +24331,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U322">
-        <v>1.000089069226582</v>
+        <v>8.906922658202809E-05</v>
       </c>
       <c r="V322">
-        <v>1.000158190302934</v>
+        <v>0.0001581903029344023</v>
       </c>
       <c r="W322">
-        <v>1.000296296296296</v>
+        <v>0.000296296296296461</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24372,7 +24372,7 @@
         <v>2.035389213585238</v>
       </c>
       <c r="K323">
-        <v>67.05529572535926</v>
+        <v>0.1705529572535925</v>
       </c>
       <c r="L323">
         <v>0.01294078949430731</v>
@@ -24402,13 +24402,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U323">
-        <v>1.000089061293962</v>
+        <v>8.906129396191176E-05</v>
       </c>
       <c r="V323">
-        <v>1.00017793594306</v>
+        <v>0.000177935943060481</v>
       </c>
       <c r="W323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24443,7 +24443,7 @@
         <v>3.077997059754715</v>
       </c>
       <c r="K324">
-        <v>75.47815789597091</v>
+        <v>0.2547815789597091</v>
       </c>
       <c r="L324">
         <v>0.01399548654346199</v>
@@ -24473,13 +24473,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U324">
-        <v>1.000188001543592</v>
+        <v>0.0001880015435915539</v>
       </c>
       <c r="V324">
-        <v>1.000336041431932</v>
+        <v>0.0003360414319317773</v>
       </c>
       <c r="W324">
-        <v>1.002369668246445</v>
+        <v>0.002369668246445356</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24514,7 +24514,7 @@
         <v>2.415307866879993</v>
       </c>
       <c r="K325">
-        <v>70.72006275927517</v>
+        <v>0.2072006275927517</v>
       </c>
       <c r="L325">
         <v>0.01518071086802388</v>
@@ -24544,13 +24544,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U325">
-        <v>1.000158287331078</v>
+        <v>0.0001582873310777</v>
       </c>
       <c r="V325">
-        <v>1.000256886535194</v>
+        <v>0.0002568865351935123</v>
       </c>
       <c r="W325">
-        <v>0.9994089834515367</v>
+        <v>-0.0005910165484632746</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24585,7 +24585,7 @@
         <v>2.528623045209446</v>
       </c>
       <c r="K326">
-        <v>71.66033358656354</v>
+        <v>0.2166033358656354</v>
       </c>
       <c r="L326">
         <v>0.01642190345135587</v>
@@ -24615,13 +24615,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U326">
-        <v>1.000197827850205</v>
+        <v>0.0001978278502050568</v>
       </c>
       <c r="V326">
-        <v>1.000237065133645</v>
+        <v>0.0002370651336454088</v>
       </c>
       <c r="W326">
-        <v>1.000295683027794</v>
+        <v>0.0002956830277942579</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24656,7 +24656,7 @@
         <v>2.886460450460282</v>
       </c>
       <c r="K327">
-        <v>74.26964682268752</v>
+        <v>0.2426964682268752</v>
       </c>
       <c r="L327">
         <v>0.01788188312189418</v>
@@ -24686,13 +24686,13 @@
         <v>0.1781250000000227</v>
       </c>
       <c r="U327">
-        <v>1.000207678158191</v>
+        <v>0.0002076781581914489</v>
       </c>
       <c r="V327">
-        <v>1.000237008947088</v>
+        <v>0.0002370089470877801</v>
       </c>
       <c r="W327">
-        <v>1.000886786875554</v>
+        <v>0.000886786875554213</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24727,7 +24727,7 @@
         <v>3.012017434758773</v>
       </c>
       <c r="K328">
-        <v>75.07488398887962</v>
+        <v>0.2507488398887961</v>
       </c>
       <c r="L328">
         <v>0.01942373296979353</v>
@@ -24757,13 +24757,13 @@
         <v>0.2125000000000057</v>
       </c>
       <c r="U328">
-        <v>1.000207635036929</v>
+        <v>0.0002076350369291102</v>
       </c>
       <c r="V328">
-        <v>1.000296190983946</v>
+        <v>0.0002961909839462873</v>
       </c>
       <c r="W328">
-        <v>1.000295333727111</v>
+        <v>0.0002953337271114354</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24798,7 +24798,7 @@
         <v>1.970363253408731</v>
       </c>
       <c r="K329">
-        <v>66.33408392551249</v>
+        <v>0.1633408392551249</v>
       </c>
       <c r="L329">
         <v>0.02041353226592189</v>
@@ -24828,13 +24828,13 @@
         <v>0.2281250000000341</v>
       </c>
       <c r="U329">
-        <v>1.000187821273231</v>
+        <v>0.0001878212732306928</v>
       </c>
       <c r="V329">
-        <v>1.000217142405938</v>
+        <v>0.0002171424059378424</v>
       </c>
       <c r="W329">
-        <v>0.998819013876587</v>
+        <v>-0.001180986123412997</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24869,7 +24869,7 @@
         <v>1.666949701364819</v>
       </c>
       <c r="K330">
-        <v>62.50397975303969</v>
+        <v>0.125039797530397</v>
       </c>
       <c r="L330">
         <v>0.02071527451385999</v>
@@ -24899,13 +24899,13 @@
         <v>0.2312500000000171</v>
       </c>
       <c r="U330">
-        <v>1.000158135581494</v>
+        <v>0.0001581355814941343</v>
       </c>
       <c r="V330">
-        <v>1.000177623398923</v>
+        <v>0.0001776233989225773</v>
       </c>
       <c r="W330">
-        <v>0.9994088087496306</v>
+        <v>-0.0005911912503694383</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24940,7 +24940,7 @@
         <v>1.829043003607175</v>
       </c>
       <c r="K331">
-        <v>64.65235775048492</v>
+        <v>0.1465235775048492</v>
       </c>
       <c r="L331">
         <v>0.02072147845320687</v>
@@ -24970,13 +24970,13 @@
         <v>0.2406249999999659</v>
       </c>
       <c r="U331">
-        <v>1.000217402045556</v>
+        <v>0.000217402045555648</v>
       </c>
       <c r="V331">
-        <v>1.000256521567544</v>
+        <v>0.0002565215675440768</v>
       </c>
       <c r="W331">
-        <v>1.000591540964212</v>
+        <v>0.0005915409642116565</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25011,7 +25011,7 @@
         <v>1.829043003607175</v>
       </c>
       <c r="K332">
-        <v>64.65235775048492</v>
+        <v>0.1465235775048492</v>
       </c>
       <c r="L332">
         <v>0.02047267675281785</v>
@@ -25041,13 +25041,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U332">
-        <v>1.000207475028898</v>
+        <v>0.0002074750288980631</v>
       </c>
       <c r="V332">
-        <v>1.000197273677773</v>
+        <v>0.0001972736777733353</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25082,7 +25082,7 @@
         <v>2.008647770634716</v>
       </c>
       <c r="K333">
-        <v>66.76247682562601</v>
+        <v>0.16762476825626</v>
       </c>
       <c r="L333">
         <v>0.02022647834807171</v>
@@ -25112,13 +25112,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U333">
-        <v>1.000237065133645</v>
+        <v>0.0002370651336454088</v>
       </c>
       <c r="V333">
-        <v>1.000236681722254</v>
+        <v>0.0002366817222538842</v>
       </c>
       <c r="W333">
-        <v>1.00059119125037</v>
+        <v>0.0005911912503695493</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25153,7 +25153,7 @@
         <v>1.835171194409618</v>
       </c>
       <c r="K334">
-        <v>64.72876128355858</v>
+        <v>0.1472876128355858</v>
       </c>
       <c r="L334">
         <v>0.01981578729855041</v>
@@ -25183,13 +25183,13 @@
         <v>0.1468750000000227</v>
       </c>
       <c r="U334">
-        <v>1.000167881337521</v>
+        <v>0.0001678813375205479</v>
       </c>
       <c r="V334">
-        <v>1.000197188097727</v>
+        <v>0.0001971880977265084</v>
       </c>
       <c r="W334">
-        <v>0.9997045790251107</v>
+        <v>-0.0002954209748893266</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25224,7 +25224,7 @@
         <v>1.926081569544481</v>
       </c>
       <c r="K335">
-        <v>65.82460275857329</v>
+        <v>0.1582460275857329</v>
       </c>
       <c r="L335">
         <v>0.01936726685007533</v>
@@ -25254,13 +25254,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U335">
-        <v>1.000177726873291</v>
+        <v>0.0001777268732905402</v>
       </c>
       <c r="V335">
-        <v>1.000197149222246</v>
+        <v>0.00019714922224634</v>
       </c>
       <c r="W335">
-        <v>1.000295508274232</v>
+        <v>0.0002955082742317483</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25295,7 +25295,7 @@
         <v>2.117471832986245</v>
       </c>
       <c r="K336">
-        <v>67.9227254142632</v>
+        <v>0.179227254142632</v>
       </c>
       <c r="L336">
         <v>0.01906949477154795</v>
@@ -25325,13 +25325,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U336">
-        <v>1.000197439213402</v>
+        <v>0.0001974392134023173</v>
       </c>
       <c r="V336">
-        <v>1.00023653243451</v>
+        <v>0.0002365324345099395</v>
       </c>
       <c r="W336">
-        <v>1.000590841949778</v>
+        <v>0.0005908419497784312</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25366,7 +25366,7 @@
         <v>2.117471832986245</v>
       </c>
       <c r="K337">
-        <v>67.9227254142632</v>
+        <v>0.179227254142632</v>
       </c>
       <c r="L337">
         <v>0.0188123518908201</v>
@@ -25396,13 +25396,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U337">
-        <v>1.000187530226912</v>
+        <v>0.0001875302269116474</v>
       </c>
       <c r="V337">
-        <v>1.000216770125135</v>
+        <v>0.0002167701251352128</v>
       </c>
       <c r="W337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25437,7 +25437,7 @@
         <v>2.329538606882935</v>
       </c>
       <c r="K338">
-        <v>69.96580853777259</v>
+        <v>0.1996580853777259</v>
       </c>
       <c r="L338">
         <v>0.01874317286301486</v>
@@ -25467,13 +25467,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U338">
-        <v>1.000217099550012</v>
+        <v>0.0002170995500119233</v>
       </c>
       <c r="V338">
-        <v>1.000256127354402</v>
+        <v>0.0002561273544017251</v>
       </c>
       <c r="W338">
-        <v>1.000590493061706</v>
+        <v>0.000590493061706443</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25508,7 +25508,7 @@
         <v>2.329538606882935</v>
       </c>
       <c r="K339">
-        <v>69.96580853777259</v>
+        <v>0.1996580853777259</v>
       </c>
       <c r="L339">
         <v>0.01872374109683023</v>
@@ -25538,13 +25538,13 @@
         <v>0.0625</v>
       </c>
       <c r="U339">
-        <v>1.000217052428027</v>
+        <v>0.0002170524280273867</v>
       </c>
       <c r="V339">
-        <v>1.000098485296145</v>
+        <v>9.848529614497892E-05</v>
       </c>
       <c r="W339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25579,7 +25579,7 @@
         <v>2.329538606882935</v>
       </c>
       <c r="K340">
-        <v>69.96580853777259</v>
+        <v>0.1996580853777259</v>
       </c>
       <c r="L340">
         <v>0.01866727665878817</v>
@@ -25609,13 +25609,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U340">
-        <v>1.00019727756954</v>
+        <v>0.000197277569540244</v>
       </c>
       <c r="V340">
-        <v>1.000137865836846</v>
+        <v>0.0001378658368456076</v>
       </c>
       <c r="W340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25650,7 +25650,7 @@
         <v>1.699132597272816</v>
       </c>
       <c r="K341">
-        <v>62.95106061071647</v>
+        <v>0.1295106061071647</v>
       </c>
       <c r="L341">
         <v>0.01820052503447938</v>
@@ -25680,13 +25680,13 @@
         <v>0.078125</v>
       </c>
       <c r="U341">
-        <v>1.000147928994083</v>
+        <v>0.000147928994082891</v>
       </c>
       <c r="V341">
-        <v>1.000059077213919</v>
+        <v>5.907721391862353E-05</v>
       </c>
       <c r="W341">
-        <v>0.999114783121865</v>
+        <v>-0.0008852168781350311</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25721,7 +25721,7 @@
         <v>1.699132597272816</v>
       </c>
       <c r="K342">
-        <v>62.95106061071647</v>
+        <v>0.1295106061071647</v>
       </c>
       <c r="L342">
         <v>0.01744874701668646</v>
@@ -25751,13 +25751,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U342">
-        <v>1.000118325691466</v>
+        <v>0.0001183256914658593</v>
       </c>
       <c r="V342">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25792,7 +25792,7 @@
         <v>1.899032214564313</v>
       </c>
       <c r="K343">
-        <v>65.50572998202136</v>
+        <v>0.1550572998202137</v>
       </c>
       <c r="L343">
         <v>0.01672417920099791</v>
@@ -25822,13 +25822,13 @@
         <v>0.09374999999997158</v>
       </c>
       <c r="U343">
-        <v>1.000157748922871</v>
+        <v>0.0001577489228705709</v>
       </c>
       <c r="V343">
-        <v>1.000019691241336</v>
+        <v>1.969124133571754E-05</v>
       </c>
       <c r="W343">
-        <v>1.000590667454223</v>
+        <v>0.0005906674542233148</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25863,7 +25863,7 @@
         <v>1.443438358571234</v>
       </c>
       <c r="K344">
-        <v>59.07406477056636</v>
+        <v>0.09074064770566359</v>
       </c>
       <c r="L344">
         <v>0.015678177557551</v>
@@ -25893,13 +25893,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U344">
-        <v>1.000128150784184</v>
+        <v>0.0001281507841843776</v>
       </c>
       <c r="V344">
-        <v>1.000039381707197</v>
+        <v>3.938170719708367E-05</v>
       </c>
       <c r="W344">
-        <v>0.9991145218417945</v>
+        <v>-0.0008854781582054994</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25934,7 +25934,7 @@
         <v>1.079841155698038</v>
       </c>
       <c r="K345">
-        <v>51.91940513051443</v>
+        <v>0.01919405130514429</v>
       </c>
       <c r="L345">
         <v>0.01401637303413706</v>
@@ -25964,13 +25964,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U345">
-        <v>1.000088708405614</v>
+        <v>8.87084056142573E-05</v>
       </c>
       <c r="V345">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W345">
-        <v>0.9988183161004432</v>
+        <v>-0.001181683899556751</v>
       </c>
     </row>
   </sheetData>
